--- a/Colorado/WaterAllocation/CO_Allocation Schema Mapping_WaDEQA.xlsx
+++ b/Colorado/WaterAllocation/CO_Allocation Schema Mapping_WaDEQA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Colorado\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A352E1-1222-4EC5-91C8-FC0C6747C758}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE05C3C-08CE-4495-AD28-E81DC64842C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12576" tabRatio="700" activeTab="4" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="700" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes and Reminders" sheetId="8" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="356">
   <si>
     <t>Name</t>
   </si>
@@ -1106,6 +1106,15 @@
   </si>
   <si>
     <t>fill blank spots with unspecified</t>
+  </si>
+  <si>
+    <t>OwnerClassificationCV</t>
+  </si>
+  <si>
+    <t>Army (USA)</t>
+  </si>
+  <si>
+    <t>WSWC defined owner tag.</t>
   </si>
 </sst>
 </file>
@@ -1983,7 +1992,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2326,6 +2335,15 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -3832,7 +3850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC5F405-0A84-4CAE-BAB0-9DF044EAE9B9}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -4822,10 +4840,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5778,7 +5796,7 @@
       </c>
       <c r="J32" s="97"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>98</v>
       </c>
@@ -5808,7 +5826,7 @@
       </c>
       <c r="J33" s="97"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>100</v>
       </c>
@@ -5838,7 +5856,7 @@
       </c>
       <c r="J34" s="97"/>
     </row>
-    <row r="35" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="66" t="s">
         <v>162</v>
       </c>
@@ -5868,7 +5886,7 @@
       </c>
       <c r="J35" s="104"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>82</v>
       </c>
@@ -5898,7 +5916,7 @@
       </c>
       <c r="J36" s="99"/>
     </row>
-    <row r="37" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="111" t="s">
         <v>342</v>
       </c>
@@ -5924,7 +5942,7 @@
       <c r="I37" s="113"/>
       <c r="J37" s="114"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>90</v>
       </c>
@@ -5954,7 +5972,7 @@
       </c>
       <c r="J38" s="97"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>91</v>
       </c>
@@ -5984,7 +6002,7 @@
       </c>
       <c r="J39" s="106"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>99</v>
       </c>
@@ -6014,7 +6032,7 @@
       </c>
       <c r="J40" s="97"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>96</v>
       </c>
@@ -6044,48 +6062,50 @@
       </c>
       <c r="J41" s="97"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>89</v>
+        <v>353</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E42" s="44" t="s">
-        <v>155</v>
-      </c>
-      <c r="F42" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G42" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H42" s="20" t="s">
+      <c r="D42" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="117"/>
+      <c r="H42" s="118" t="s">
         <v>38</v>
       </c>
       <c r="I42" s="97" t="s">
-        <v>38</v>
-      </c>
-      <c r="J42" s="97"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+        <v>354</v>
+      </c>
+      <c r="J42" s="119" t="s">
+        <v>355</v>
+      </c>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E43" s="44" t="s">
         <v>155</v>
@@ -6099,81 +6119,81 @@
       <c r="H43" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I43" s="21" t="s">
+      <c r="I43" s="97" t="s">
+        <v>38</v>
+      </c>
+      <c r="J43" s="97"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="F44" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H44" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I44" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="J43" s="97"/>
-    </row>
-    <row r="44" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="66" t="s">
+      <c r="J44" s="97"/>
+    </row>
+    <row r="45" spans="1:16" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="66" t="s">
         <v>156</v>
       </c>
-      <c r="B44" s="67" t="s">
+      <c r="B45" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="C44" s="68" t="s">
+      <c r="C45" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="70" t="s">
+      <c r="D45" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="E44" s="45" t="s">
+      <c r="E45" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="F44" s="44"/>
-      <c r="G44" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H44" s="96" t="s">
-        <v>38</v>
-      </c>
-      <c r="I44" s="45" t="s">
+      <c r="F45" s="44"/>
+      <c r="G45" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H45" s="96" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="J44" s="107"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="7" t="s">
+      <c r="J45" s="107"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B46" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E45" s="44" t="s">
-        <v>155</v>
-      </c>
-      <c r="F45" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G45" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H45" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="I45" s="97" t="s">
-        <v>38</v>
-      </c>
-      <c r="J45" s="97"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>34</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E46" s="44" t="s">
         <v>155</v>
@@ -6187,10 +6207,40 @@
       <c r="H46" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I46" s="21" t="s">
+      <c r="I46" s="97" t="s">
+        <v>38</v>
+      </c>
+      <c r="J46" s="97"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="F47" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H47" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="J46" s="97"/>
+      <c r="J47" s="97"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:J13">

--- a/Colorado/WaterAllocation/CO_Allocation Schema Mapping_WaDEQA.xlsx
+++ b/Colorado/WaterAllocation/CO_Allocation Schema Mapping_WaDEQA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Colorado\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE05C3C-08CE-4495-AD28-E81DC64842C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1884D2-0D90-4444-8C9C-A212ED891D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="700" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="700" activeTab="5" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes and Reminders" sheetId="8" r:id="rId1"/>
@@ -4153,8 +4153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E7F0DF-14BE-4BB8-BB6C-8815808B0B66}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4842,8 +4842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:XFD42"/>
+    <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5238,13 +5238,13 @@
         <v>20</v>
       </c>
       <c r="E14" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="33" t="s">
-        <v>334</v>
-      </c>
-      <c r="G14" s="63" t="s">
-        <v>179</v>
+        <v>155</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>38</v>
       </c>
       <c r="H14" s="72" t="s">
         <v>38</v>

--- a/Colorado/WaterAllocation/CO_Allocation Schema Mapping_WaDEQA.xlsx
+++ b/Colorado/WaterAllocation/CO_Allocation Schema Mapping_WaDEQA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Colorado\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1884D2-0D90-4444-8C9C-A212ED891D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DD3FEA-7F0D-425F-AED6-F2FF7B86BEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="700" activeTab="5" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="700" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes and Reminders" sheetId="8" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="357">
   <si>
     <t>Name</t>
   </si>
@@ -595,9 +595,6 @@
     <t>Water Source</t>
   </si>
   <si>
-    <t>CODWR_Allocation All</t>
-  </si>
-  <si>
     <t>COwr_WS + counter</t>
   </si>
   <si>
@@ -779,9 +776,6 @@
   </si>
   <si>
     <t>All Beneficial Uses</t>
-  </si>
-  <si>
-    <t>CODWR_Diversion Tracking</t>
   </si>
   <si>
     <t>DiversionTracking</t>
@@ -1115,6 +1109,15 @@
   </si>
   <si>
     <t>WSWC defined owner tag.</t>
+  </si>
+  <si>
+    <t>COwr_M1</t>
+  </si>
+  <si>
+    <t>COwr_V1</t>
+  </si>
+  <si>
+    <t>COwr_O1</t>
   </si>
 </sst>
 </file>
@@ -2754,7 +2757,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2857,7 +2860,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="78" t="s">
-        <v>246</v>
+        <v>354</v>
       </c>
       <c r="F4" s="57"/>
       <c r="G4" s="58"/>
@@ -2997,7 +3000,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F9" s="23"/>
       <c r="G9" s="24"/>
@@ -3025,7 +3028,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="72" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="24"/>
@@ -3081,7 +3084,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="72" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="24"/>
@@ -3109,7 +3112,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3212,7 +3215,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>184</v>
+        <v>355</v>
       </c>
       <c r="F4" s="57"/>
       <c r="G4" s="58"/>
@@ -3268,7 +3271,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F6" s="23"/>
       <c r="G6" s="24"/>
@@ -3491,8 +3494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8BA2FE-2555-4166-A4DF-0203EE1C77D7}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3595,7 +3598,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="61" t="s">
-        <v>127</v>
+        <v>356</v>
       </c>
       <c r="F4" s="61"/>
       <c r="G4" s="56"/>
@@ -3623,7 +3626,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="115" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F5" s="33"/>
       <c r="G5" s="34"/>
@@ -3791,7 +3794,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="115" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="34"/>
@@ -3952,7 +3955,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="54" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F4" s="57"/>
       <c r="G4" s="60"/>
@@ -4030,7 +4033,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="24"/>
@@ -4056,10 +4059,10 @@
         <v>38</v>
       </c>
       <c r="E8" s="116" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G8" s="34" t="s">
         <v>183</v>
@@ -4086,10 +4089,10 @@
         <v>38</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G9" s="49" t="s">
         <v>172</v>
@@ -4116,10 +4119,10 @@
         <v>20</v>
       </c>
       <c r="E10" s="75" t="s">
+        <v>330</v>
+      </c>
+      <c r="F10" s="33" t="s">
         <v>332</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>334</v>
       </c>
       <c r="G10" s="34" t="s">
         <v>183</v>
@@ -4153,7 +4156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E7F0DF-14BE-4BB8-BB6C-8815808B0B66}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -4253,7 +4256,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="54" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F4" s="57"/>
       <c r="G4" s="58"/>
@@ -4312,7 +4315,7 @@
         <v>38</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G6" s="28" t="s">
         <v>171</v>
@@ -4342,7 +4345,7 @@
         <v>38</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G7" s="24" t="s">
         <v>66</v>
@@ -4520,7 +4523,7 @@
         <v>38</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G13" s="24" t="s">
         <v>55</v>
@@ -4550,7 +4553,7 @@
         <v>38</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G14" s="24" t="s">
         <v>54</v>
@@ -4625,7 +4628,7 @@
     </row>
     <row r="17" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>16</v>
@@ -4637,7 +4640,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="45" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F17" s="44" t="s">
         <v>38</v>
@@ -4647,7 +4650,7 @@
       </c>
       <c r="H17" s="109"/>
       <c r="I17" s="110" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J17" s="109"/>
     </row>
@@ -4666,7 +4669,7 @@
         <v>38</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G18" s="28" t="s">
         <v>169</v>
@@ -4696,7 +4699,7 @@
         <v>38</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G19" s="24" t="s">
         <v>166</v>
@@ -4753,10 +4756,10 @@
         <v>20</v>
       </c>
       <c r="E21" s="108" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F21" s="33" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G21" s="28" t="s">
         <v>170</v>
@@ -4842,8 +4845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5076,7 +5079,7 @@
     </row>
     <row r="9" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="66" t="s">
-        <v>6</v>
+        <v>354</v>
       </c>
       <c r="B9" s="67" t="s">
         <v>67</v>
@@ -5118,7 +5121,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>127</v>
+        <v>356</v>
       </c>
       <c r="F10" s="33" t="s">
         <v>38</v>
@@ -5148,7 +5151,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F11" s="33" t="s">
         <v>38</v>
@@ -5178,7 +5181,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>184</v>
+        <v>355</v>
       </c>
       <c r="F12" s="33" t="s">
         <v>38</v>
@@ -5208,7 +5211,7 @@
         <v>38</v>
       </c>
       <c r="E13" s="57" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F13" s="57" t="s">
         <v>38</v>
@@ -5468,7 +5471,7 @@
     </row>
     <row r="22" spans="1:10" s="48" customFormat="1" ht="84" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>69</v>
@@ -5480,13 +5483,13 @@
         <v>38</v>
       </c>
       <c r="E22" s="44" t="s">
+        <v>343</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>332</v>
+      </c>
+      <c r="G22" s="34" t="s">
         <v>345</v>
-      </c>
-      <c r="F22" s="33" t="s">
-        <v>334</v>
-      </c>
-      <c r="G22" s="34" t="s">
-        <v>347</v>
       </c>
       <c r="H22" s="20" t="s">
         <v>38</v>
@@ -5510,13 +5513,13 @@
         <v>20</v>
       </c>
       <c r="E23" s="44" t="s">
+        <v>344</v>
+      </c>
+      <c r="F23" s="33" t="s">
+        <v>332</v>
+      </c>
+      <c r="G23" s="34" t="s">
         <v>346</v>
-      </c>
-      <c r="F23" s="33" t="s">
-        <v>334</v>
-      </c>
-      <c r="G23" s="34" t="s">
-        <v>348</v>
       </c>
       <c r="H23" s="20" t="s">
         <v>38</v>
@@ -5543,7 +5546,7 @@
         <v>177</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G24" s="34" t="s">
         <v>176</v>
@@ -5570,7 +5573,7 @@
         <v>38</v>
       </c>
       <c r="E25" s="44" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F25" s="44" t="s">
         <v>38</v>
@@ -5603,7 +5606,7 @@
         <v>38</v>
       </c>
       <c r="F26" s="33" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G26" s="28" t="s">
         <v>179</v>
@@ -5708,7 +5711,7 @@
     </row>
     <row r="30" spans="1:10" s="48" customFormat="1" ht="84" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>69</v>
@@ -5720,13 +5723,13 @@
         <v>38</v>
       </c>
       <c r="E30" s="44" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F30" s="33" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G30" s="34" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H30" s="20" t="s">
         <v>38</v>
@@ -5750,13 +5753,13 @@
         <v>38</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F31" s="33" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G31" s="62" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H31" s="25" t="s">
         <v>38</v>
@@ -5870,7 +5873,7 @@
         <v>38</v>
       </c>
       <c r="E35" s="73">
-        <v>44237</v>
+        <v>44631</v>
       </c>
       <c r="F35" s="44" t="s">
         <v>38</v>
@@ -5918,10 +5921,10 @@
     </row>
     <row r="37" spans="1:16" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="111" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B37" s="67" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C37" s="68" t="s">
         <v>18</v>
@@ -6064,7 +6067,7 @@
     </row>
     <row r="42" spans="1:16" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>34</v>
@@ -6082,10 +6085,10 @@
         <v>38</v>
       </c>
       <c r="I42" s="97" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J42" s="119" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
@@ -6270,21 +6273,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="76" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="76" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="D1" s="50" t="s">
         <v>216</v>
-      </c>
-      <c r="D1" s="50" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="77" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B2" s="77" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D2" t="str">
         <f t="shared" ref="D2:D29" si="0">""""&amp;A2&amp;""""&amp;" : "&amp;""""&amp;B2&amp;""""&amp;","</f>
@@ -6293,7 +6296,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="77" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B3" s="77" t="s">
         <v>133</v>
@@ -6305,10 +6308,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="77" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B4" s="77" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
@@ -6317,10 +6320,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="77" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B5" s="77" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -6329,10 +6332,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="77" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B6" s="77" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -6341,10 +6344,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="77" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B7" s="77" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
@@ -6353,10 +6356,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="77" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B8" s="77" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -6365,10 +6368,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="77" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B9" s="77" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
@@ -6377,10 +6380,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="77" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B10" s="77" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -6389,10 +6392,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="77" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B11" s="77" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
@@ -6401,10 +6404,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="77" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B12" s="77" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
@@ -6413,10 +6416,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="77" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B13" s="77" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -6425,10 +6428,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="77" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B14" s="77" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -6437,10 +6440,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="77" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B15" s="77" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
@@ -6449,10 +6452,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="77" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B16" s="77" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -6461,10 +6464,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="77" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B17" s="77" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
@@ -6473,10 +6476,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="77" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B18" s="77" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
@@ -6485,10 +6488,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="77" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B19" s="77" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
@@ -6497,10 +6500,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="77" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B20" s="77" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
@@ -6509,10 +6512,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="77" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B21" s="77" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
@@ -6521,10 +6524,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="77" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B22" s="77" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
@@ -6533,10 +6536,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="77" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B23" s="77" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
@@ -6545,10 +6548,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B24" s="77" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
@@ -6557,10 +6560,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="77" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B25" s="77" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
@@ -6569,10 +6572,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="77" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B26" s="77" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
@@ -6581,10 +6584,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="77" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B27" s="77" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
@@ -6593,10 +6596,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="77" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B28" s="77" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
@@ -6605,10 +6608,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="77" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B29" s="77" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
@@ -6638,13 +6641,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="86" t="s">
+        <v>326</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>327</v>
+      </c>
+      <c r="C1" s="86" t="s">
         <v>328</v>
-      </c>
-      <c r="B1" s="82" t="s">
-        <v>329</v>
-      </c>
-      <c r="C1" s="86" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6652,10 +6655,10 @@
         <v>166</v>
       </c>
       <c r="B2" s="83" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C2" s="87" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6663,10 +6666,10 @@
         <v>169</v>
       </c>
       <c r="B3" s="84" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C3" s="88" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6674,10 +6677,10 @@
         <v>170</v>
       </c>
       <c r="B4" s="84" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C4" s="88" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6685,10 +6688,10 @@
         <v>183</v>
       </c>
       <c r="B5" s="84" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C5" s="88" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6696,43 +6699,43 @@
         <v>172</v>
       </c>
       <c r="B6" s="84" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C6" s="88" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="91" t="s">
+        <v>255</v>
+      </c>
+      <c r="B7" s="84" t="s">
+        <v>256</v>
+      </c>
+      <c r="C7" s="88" t="s">
         <v>257</v>
-      </c>
-      <c r="B7" s="84" t="s">
-        <v>258</v>
-      </c>
-      <c r="C7" s="88" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="91" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B8" s="84" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C8" s="88" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="91" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B9" s="84" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C9" s="88" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6740,153 +6743,153 @@
         <v>66</v>
       </c>
       <c r="B10" s="84" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C10" s="88" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="91" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B11" s="84" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C11" s="88" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="91" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B12" s="84" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C12" s="88" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="91" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B13" s="84" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C13" s="88" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="91" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B14" s="84" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C14" s="88" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="91" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B15" s="84" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C15" s="88" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="91" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B16" s="84" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C16" s="88" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="91" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B17" s="84" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C17" s="88" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="91" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B18" s="84" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C18" s="88" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="91" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B19" s="84" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C19" s="88" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="91" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B20" s="84" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C20" s="88" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="91" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B21" s="84" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C21" s="88" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="91" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B22" s="84" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C22" s="88" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="91" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B23" s="84" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C23" s="88" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6894,10 +6897,10 @@
         <v>55</v>
       </c>
       <c r="B24" s="84" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C24" s="88" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6905,10 +6908,10 @@
         <v>54</v>
       </c>
       <c r="B25" s="84" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C25" s="88" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6916,32 +6919,32 @@
         <v>171</v>
       </c>
       <c r="B26" s="84" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C26" s="88" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="91" t="s">
+        <v>292</v>
+      </c>
+      <c r="B27" s="84" t="s">
+        <v>293</v>
+      </c>
+      <c r="C27" s="88" t="s">
         <v>294</v>
-      </c>
-      <c r="B27" s="84" t="s">
-        <v>295</v>
-      </c>
-      <c r="C27" s="88" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="91" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B28" s="84" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C28" s="88" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6949,175 +6952,175 @@
         <v>179</v>
       </c>
       <c r="B29" s="84" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C29" s="88" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="91" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B30" s="84" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C30" s="88" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="91" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B31" s="84" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C31" s="88" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="91" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B32" s="84" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C32" s="88" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="91" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B33" s="84" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C33" s="88" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="91" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B34" s="84" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C34" s="88" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="91" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B35" s="84" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C35" s="88" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="91" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B36" s="84" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C36" s="88" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="91" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B37" s="84" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C37" s="88" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="91" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B38" s="84" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C38" s="88" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="91" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B39" s="84" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C39" s="88" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="91" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B40" s="84" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C40" s="88" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="91" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B41" s="84" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C41" s="88" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="91" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B42" s="84" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C42" s="88" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="91" t="s">
+        <v>321</v>
+      </c>
+      <c r="B43" s="84" t="s">
+        <v>322</v>
+      </c>
+      <c r="C43" s="88" t="s">
         <v>323</v>
-      </c>
-      <c r="B43" s="84" t="s">
-        <v>324</v>
-      </c>
-      <c r="C43" s="88" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="92" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B44" s="85" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C44" s="89" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>

--- a/Colorado/WaterAllocation/CO_Allocation Schema Mapping_WaDEQA.xlsx
+++ b/Colorado/WaterAllocation/CO_Allocation Schema Mapping_WaDEQA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Colorado\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DD3FEA-7F0D-425F-AED6-F2FF7B86BEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72C46A7-0B9B-4910-8472-4650370C1CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="700" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="700" activeTab="3" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes and Reminders" sheetId="8" r:id="rId1"/>
@@ -1093,9 +1093,6 @@
     <t>doug.stenzel@state.co.us</t>
   </si>
   <si>
-    <t>https://dwr.colorado.gov/about-us/contact-us/denver-office</t>
-  </si>
-  <si>
     <t>'input_WaterSourceName.  Remove the Groundwater portion of the text.</t>
   </si>
   <si>
@@ -1118,6 +1115,9 @@
   </si>
   <si>
     <t>COwr_O1</t>
+  </si>
+  <si>
+    <t>https://dwr.colorado.gov</t>
   </si>
 </sst>
 </file>
@@ -2860,7 +2860,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="78" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F4" s="57"/>
       <c r="G4" s="58"/>
@@ -3215,7 +3215,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F4" s="57"/>
       <c r="G4" s="58"/>
@@ -3494,8 +3494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8BA2FE-2555-4166-A4DF-0203EE1C77D7}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3504,7 +3504,7 @@
     <col min="2" max="2" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5546875" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.109375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.44140625" style="7" customWidth="1"/>
     <col min="6" max="6" width="18.77734375" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.77734375" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.44140625" style="7" bestFit="1" customWidth="1"/>
@@ -3598,7 +3598,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="61" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F4" s="61"/>
       <c r="G4" s="56"/>
@@ -3612,7 +3612,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>78</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>75</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="115" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="34"/>
@@ -4059,7 +4059,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="116" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F8" s="33" t="s">
         <v>332</v>
@@ -4089,7 +4089,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F9" s="33" t="s">
         <v>332</v>
@@ -4845,7 +4845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
@@ -5079,7 +5079,7 @@
     </row>
     <row r="9" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="66" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B9" s="67" t="s">
         <v>67</v>
@@ -5121,7 +5121,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F10" s="33" t="s">
         <v>38</v>
@@ -5181,7 +5181,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F12" s="33" t="s">
         <v>38</v>
@@ -6067,7 +6067,7 @@
     </row>
     <row r="42" spans="1:16" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>34</v>
@@ -6085,10 +6085,10 @@
         <v>38</v>
       </c>
       <c r="I42" s="97" t="s">
+        <v>351</v>
+      </c>
+      <c r="J42" s="119" t="s">
         <v>352</v>
-      </c>
-      <c r="J42" s="119" t="s">
-        <v>353</v>
       </c>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>

--- a/Colorado/WaterAllocation/CO_Allocation Schema Mapping_WaDEQA.xlsx
+++ b/Colorado/WaterAllocation/CO_Allocation Schema Mapping_WaDEQA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Colorado\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72C46A7-0B9B-4910-8472-4650370C1CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B31C95-909D-426B-A941-600B6AF4B792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="700" activeTab="3" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="700" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes and Reminders" sheetId="8" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="358">
   <si>
     <t>Name</t>
   </si>
@@ -511,9 +511,6 @@
     <t>(blank)</t>
   </si>
   <si>
-    <t>PrimaryUseCategory</t>
-  </si>
-  <si>
     <t>BeneficialUseCategory</t>
   </si>
   <si>
@@ -560,9 +557,6 @@
   </si>
   <si>
     <t>GNIS ID</t>
-  </si>
-  <si>
-    <t>CODWR_DiversionTracking</t>
   </si>
   <si>
     <t>01/01</t>
@@ -1118,6 +1112,15 @@
   </si>
   <si>
     <t>https://dwr.colorado.gov</t>
+  </si>
+  <si>
+    <t>AllocationUUID</t>
+  </si>
+  <si>
+    <t>COwr_WR + counter</t>
+  </si>
+  <si>
+    <t>PrimaryBeneficialUseCategory</t>
   </si>
 </sst>
 </file>
@@ -2714,12 +2717,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
@@ -2744,7 +2747,7 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="50" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2799,10 +2802,10 @@
         <v>143</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>168</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>3</v>
@@ -2860,7 +2863,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="78" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F4" s="57"/>
       <c r="G4" s="58"/>
@@ -3000,7 +3003,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F9" s="23"/>
       <c r="G9" s="24"/>
@@ -3028,7 +3031,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="72" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="24"/>
@@ -3084,7 +3087,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="72" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="24"/>
@@ -3154,10 +3157,10 @@
         <v>143</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>168</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>3</v>
@@ -3215,7 +3218,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F4" s="57"/>
       <c r="G4" s="58"/>
@@ -3271,7 +3274,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F6" s="23"/>
       <c r="G6" s="24"/>
@@ -3494,8 +3497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8BA2FE-2555-4166-A4DF-0203EE1C77D7}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:E9"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3537,10 +3540,10 @@
         <v>143</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>168</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>3</v>
@@ -3598,7 +3601,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="61" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F4" s="61"/>
       <c r="G4" s="56"/>
@@ -3626,7 +3629,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="115" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F5" s="33"/>
       <c r="G5" s="34"/>
@@ -3794,7 +3797,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="115" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="34"/>
@@ -3896,10 +3899,10 @@
         <v>143</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>168</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>3</v>
@@ -3955,7 +3958,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="54" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F4" s="57"/>
       <c r="G4" s="60"/>
@@ -4033,7 +4036,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="24"/>
@@ -4059,13 +4062,13 @@
         <v>38</v>
       </c>
       <c r="E8" s="116" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H8" s="22" t="s">
         <v>38</v>
@@ -4089,13 +4092,13 @@
         <v>38</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G9" s="49" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H9" s="22" t="s">
         <v>38</v>
@@ -4119,13 +4122,13 @@
         <v>20</v>
       </c>
       <c r="E10" s="75" t="s">
+        <v>328</v>
+      </c>
+      <c r="F10" s="33" t="s">
         <v>330</v>
       </c>
-      <c r="F10" s="33" t="s">
-        <v>332</v>
-      </c>
       <c r="G10" s="34" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H10" s="22" t="s">
         <v>38</v>
@@ -4199,10 +4202,10 @@
         <v>143</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>168</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>3</v>
@@ -4256,7 +4259,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="54" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F4" s="57"/>
       <c r="G4" s="58"/>
@@ -4315,10 +4318,10 @@
         <v>38</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H6" s="26" t="s">
         <v>38</v>
@@ -4345,7 +4348,7 @@
         <v>38</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G7" s="24" t="s">
         <v>66</v>
@@ -4523,7 +4526,7 @@
         <v>38</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G13" s="24" t="s">
         <v>55</v>
@@ -4553,7 +4556,7 @@
         <v>38</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G14" s="24" t="s">
         <v>54</v>
@@ -4628,7 +4631,7 @@
     </row>
     <row r="17" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>16</v>
@@ -4640,7 +4643,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="45" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F17" s="44" t="s">
         <v>38</v>
@@ -4650,7 +4653,7 @@
       </c>
       <c r="H17" s="109"/>
       <c r="I17" s="110" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="J17" s="109"/>
     </row>
@@ -4669,10 +4672,10 @@
         <v>38</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H18" s="26" t="s">
         <v>38</v>
@@ -4699,10 +4702,10 @@
         <v>38</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H19" s="26" t="s">
         <v>38</v>
@@ -4756,13 +4759,13 @@
         <v>20</v>
       </c>
       <c r="E21" s="108" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F21" s="33" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H21" s="26" t="s">
         <v>38</v>
@@ -4843,10 +4846,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4888,10 +4891,10 @@
         <v>143</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>168</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>3</v>
@@ -5079,67 +5082,59 @@
     </row>
     <row r="9" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="66" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B9" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="72" t="s">
+        <v>356</v>
+      </c>
+      <c r="F9" s="44"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+    </row>
+    <row r="10" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="68" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="72" t="s">
-        <v>173</v>
-      </c>
-      <c r="F9" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="94" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="94"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>355</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="97" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="97"/>
+      <c r="C10" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="72" t="s">
+        <v>351</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="94" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="94"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>67</v>
@@ -5151,7 +5146,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="F11" s="33" t="s">
         <v>38</v>
@@ -5169,7 +5164,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>67</v>
@@ -5180,8 +5175,8 @@
       <c r="D12" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="20" t="s">
-        <v>354</v>
+      <c r="E12" s="21" t="s">
+        <v>333</v>
       </c>
       <c r="F12" s="33" t="s">
         <v>38</v>
@@ -5197,80 +5192,78 @@
       </c>
       <c r="J12" s="97"/>
     </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="97" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="97"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B14" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="57" t="s">
-        <v>334</v>
-      </c>
-      <c r="F13" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="97" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="97"/>
-    </row>
-    <row r="14" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="66" t="s">
-        <v>158</v>
-      </c>
-      <c r="B14" s="67" t="s">
+      <c r="C14" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="57" t="s">
+        <v>332</v>
+      </c>
+      <c r="F14" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="97" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="97"/>
+    </row>
+    <row r="15" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="66" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="68" t="s">
+      <c r="C15" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="70" t="s">
+      <c r="D15" s="70" t="s">
         <v>20</v>
-      </c>
-      <c r="E14" s="44" t="s">
-        <v>155</v>
-      </c>
-      <c r="F14" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="45">
-        <v>5363</v>
-      </c>
-      <c r="J14" s="98" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>38</v>
       </c>
       <c r="E15" s="44" t="s">
         <v>155</v>
@@ -5281,17 +5274,19 @@
       <c r="G15" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="J15" s="97"/>
+      <c r="H15" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="45">
+        <v>5363</v>
+      </c>
+      <c r="J15" s="98" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="16" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>68</v>
@@ -5320,17 +5315,17 @@
       <c r="J16" s="97"/>
     </row>
     <row r="17" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" s="67" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="67" t="s">
+      <c r="A17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="70" t="s">
-        <v>20</v>
+      <c r="D17" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="E17" s="44" t="s">
         <v>155</v>
@@ -5341,26 +5336,26 @@
       <c r="G17" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="J17" s="99"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="8" t="s">
+      <c r="H17" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="J17" s="97"/>
+    </row>
+    <row r="18" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>38</v>
+      <c r="D18" s="70" t="s">
+        <v>20</v>
       </c>
       <c r="E18" s="44" t="s">
         <v>155</v>
@@ -5371,20 +5366,20 @@
       <c r="G18" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="J18" s="97"/>
+      <c r="H18" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="J18" s="99"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>18</v>
@@ -5405,16 +5400,16 @@
         <v>38</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J19" s="97"/>
     </row>
-    <row r="20" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>18</v>
@@ -5426,7 +5421,7 @@
         <v>155</v>
       </c>
       <c r="F20" s="44" t="s">
-        <v>178</v>
+        <v>38</v>
       </c>
       <c r="G20" s="34" t="s">
         <v>38</v>
@@ -5434,29 +5429,29 @@
       <c r="H20" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="97" t="s">
-        <v>38</v>
+      <c r="I20" s="21" t="s">
+        <v>138</v>
       </c>
       <c r="J20" s="97"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>160</v>
+        <v>88</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E21" s="44" t="s">
         <v>155</v>
       </c>
       <c r="F21" s="44" t="s">
-        <v>38</v>
+        <v>176</v>
       </c>
       <c r="G21" s="34" t="s">
         <v>38</v>
@@ -5464,194 +5459,194 @@
       <c r="H21" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="21">
-        <v>5200</v>
+      <c r="I21" s="97" t="s">
+        <v>38</v>
       </c>
       <c r="J21" s="97"/>
     </row>
-    <row r="22" spans="1:10" s="48" customFormat="1" ht="84" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>338</v>
+        <v>159</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E22" s="44" t="s">
-        <v>343</v>
-      </c>
-      <c r="F22" s="33" t="s">
-        <v>332</v>
+        <v>155</v>
+      </c>
+      <c r="F22" s="44" t="s">
+        <v>38</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>345</v>
+        <v>38</v>
       </c>
       <c r="H22" s="20" t="s">
         <v>38</v>
       </c>
       <c r="I22" s="21">
-        <v>1</v>
+        <v>5200</v>
       </c>
       <c r="J22" s="97"/>
     </row>
-    <row r="23" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" s="48" customFormat="1" ht="84" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>86</v>
+        <v>336</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E23" s="44" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F23" s="33" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G23" s="34" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H23" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I23" s="21" t="s">
-        <v>137</v>
+      <c r="I23" s="21">
+        <v>1</v>
       </c>
       <c r="J23" s="97"/>
     </row>
-    <row r="24" spans="1:10" ht="36" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E24" s="44" t="s">
-        <v>177</v>
+        <v>342</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G24" s="34" t="s">
-        <v>176</v>
+        <v>344</v>
       </c>
       <c r="H24" s="20" t="s">
         <v>38</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="J24" s="100"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="J24" s="97"/>
+    </row>
+    <row r="25" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>38</v>
       </c>
       <c r="E25" s="44" t="s">
-        <v>333</v>
-      </c>
-      <c r="F25" s="44" t="s">
-        <v>38</v>
+        <v>175</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>330</v>
       </c>
       <c r="G25" s="34" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="H25" s="20" t="s">
         <v>38</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="J25" s="97"/>
+        <v>135</v>
+      </c>
+      <c r="J25" s="100"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>159</v>
+        <v>84</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="44" t="s">
+        <v>331</v>
+      </c>
+      <c r="F26" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="J26" s="97"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="12" t="s">
+      <c r="C27" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="33" t="s">
-        <v>332</v>
-      </c>
-      <c r="G26" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="H26" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="I26" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="J26" s="97"/>
-    </row>
-    <row r="27" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
+      <c r="E27" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="J27" s="97"/>
+    </row>
+    <row r="28" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="74" t="s">
-        <v>175</v>
-      </c>
-      <c r="F27" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H27" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="I27" s="101">
-        <v>44196</v>
-      </c>
-      <c r="J27" s="102"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>106</v>
@@ -5663,7 +5658,7 @@
         <v>38</v>
       </c>
       <c r="E28" s="74" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F28" s="33" t="s">
         <v>38</v>
@@ -5675,27 +5670,27 @@
         <v>38</v>
       </c>
       <c r="I28" s="101">
-        <v>43831</v>
+        <v>44196</v>
       </c>
       <c r="J28" s="102"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="44" t="s">
-        <v>155</v>
-      </c>
-      <c r="F29" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="74" t="s">
+        <v>172</v>
+      </c>
+      <c r="F29" s="33" t="s">
         <v>38</v>
       </c>
       <c r="G29" s="24" t="s">
@@ -5704,113 +5699,113 @@
       <c r="H29" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I29" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="J29" s="97"/>
-    </row>
-    <row r="30" spans="1:10" s="48" customFormat="1" ht="84" x14ac:dyDescent="0.3">
+      <c r="I29" s="101">
+        <v>43831</v>
+      </c>
+      <c r="J29" s="102"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>339</v>
+        <v>87</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E30" s="44" t="s">
-        <v>342</v>
-      </c>
-      <c r="F30" s="33" t="s">
-        <v>332</v>
-      </c>
-      <c r="G30" s="34" t="s">
-        <v>345</v>
+        <v>155</v>
+      </c>
+      <c r="F30" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>38</v>
       </c>
       <c r="H30" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I30" s="21">
+      <c r="I30" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="J30" s="97"/>
+    </row>
+    <row r="31" spans="1:10" s="48" customFormat="1" ht="84" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="44" t="s">
+        <v>340</v>
+      </c>
+      <c r="F31" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="G31" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31" s="21">
         <v>0</v>
       </c>
-      <c r="J30" s="97"/>
-    </row>
-    <row r="31" spans="1:10" ht="36" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>329</v>
-      </c>
-      <c r="F31" s="33" t="s">
-        <v>332</v>
-      </c>
-      <c r="G31" s="62" t="s">
-        <v>217</v>
-      </c>
-      <c r="H31" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="I31" s="97" t="s">
-        <v>38</v>
-      </c>
       <c r="J31" s="97"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>18</v>
+      <c r="C32" s="22" t="s">
+        <v>38</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="44" t="s">
-        <v>155</v>
-      </c>
-      <c r="F32" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G32" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H32" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="I32" s="21" t="s">
-        <v>134</v>
+      <c r="E32" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="F32" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="G32" s="62" t="s">
+        <v>215</v>
+      </c>
+      <c r="H32" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" s="97" t="s">
+        <v>38</v>
       </c>
       <c r="J32" s="97"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E33" s="44" t="s">
         <v>155</v>
@@ -5831,7 +5826,7 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>15</v>
@@ -5859,125 +5854,125 @@
       </c>
       <c r="J34" s="97"/>
     </row>
-    <row r="35" spans="1:16" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="66" t="s">
-        <v>162</v>
-      </c>
-      <c r="B35" s="67" t="s">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="F35" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I35" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="J35" s="97"/>
+    </row>
+    <row r="36" spans="1:16" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="66" t="s">
+        <v>161</v>
+      </c>
+      <c r="B36" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="71" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" s="73">
+      <c r="C36" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="73">
         <v>44631</v>
       </c>
-      <c r="F35" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G35" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H35" s="96" t="s">
-        <v>38</v>
-      </c>
-      <c r="I35" s="103">
+      <c r="F36" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H36" s="96" t="s">
+        <v>38</v>
+      </c>
+      <c r="I36" s="103">
         <v>43874</v>
       </c>
-      <c r="J35" s="104"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
+      <c r="J36" s="104"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B37" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C37" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="44" t="s">
+      <c r="D37" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="F36" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G36" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H36" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="I36" s="105">
+      <c r="F37" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="105">
         <v>33187</v>
       </c>
-      <c r="J36" s="99"/>
-    </row>
-    <row r="37" spans="1:16" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="111" t="s">
-        <v>340</v>
-      </c>
-      <c r="B37" s="67" t="s">
-        <v>341</v>
-      </c>
-      <c r="C37" s="68" t="s">
+      <c r="J37" s="99"/>
+    </row>
+    <row r="38" spans="1:16" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="111" t="s">
+        <v>338</v>
+      </c>
+      <c r="B38" s="67" t="s">
+        <v>339</v>
+      </c>
+      <c r="C38" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="44">
+      <c r="D38" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="44">
         <v>0</v>
       </c>
-      <c r="F37" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G37" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="H37" s="112"/>
-      <c r="I37" s="113"/>
-      <c r="J37" s="114"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" s="44" t="s">
-        <v>155</v>
-      </c>
       <c r="F38" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="G38" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H38" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="I38" s="97" t="s">
-        <v>38</v>
-      </c>
-      <c r="J38" s="97"/>
+      <c r="G38" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" s="112"/>
+      <c r="I38" s="113"/>
+      <c r="J38" s="114"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>69</v>
@@ -6003,20 +5998,20 @@
       <c r="I39" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="J39" s="106"/>
+      <c r="J39" s="97"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E40" s="44" t="s">
         <v>155</v>
@@ -6030,23 +6025,23 @@
       <c r="H40" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I40" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="J40" s="97"/>
+      <c r="I40" s="97" t="s">
+        <v>38</v>
+      </c>
+      <c r="J40" s="106"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E41" s="44" t="s">
         <v>155</v>
@@ -6060,14 +6055,14 @@
       <c r="H41" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I41" s="97" t="s">
-        <v>38</v>
+      <c r="I41" s="21" t="s">
+        <v>134</v>
       </c>
       <c r="J41" s="97"/>
     </row>
-    <row r="42" spans="1:16" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>350</v>
+        <v>96</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>34</v>
@@ -6075,70 +6070,70 @@
       <c r="C42" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="117"/>
-      <c r="H42" s="118" t="s">
+      <c r="D42" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="F42" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G42" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H42" s="20" t="s">
         <v>38</v>
       </c>
       <c r="I42" s="97" t="s">
-        <v>351</v>
-      </c>
-      <c r="J42" s="119" t="s">
-        <v>352</v>
-      </c>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="J42" s="97"/>
+    </row>
+    <row r="43" spans="1:16" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>89</v>
+        <v>348</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43" s="44" t="s">
-        <v>155</v>
-      </c>
-      <c r="F43" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G43" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H43" s="20" t="s">
+      <c r="D43" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="117"/>
+      <c r="H43" s="118" t="s">
         <v>38</v>
       </c>
       <c r="I43" s="97" t="s">
-        <v>38</v>
-      </c>
-      <c r="J43" s="97"/>
+        <v>349</v>
+      </c>
+      <c r="J43" s="119" t="s">
+        <v>350</v>
+      </c>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E44" s="44" t="s">
         <v>155</v>
@@ -6152,81 +6147,81 @@
       <c r="H44" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I44" s="21" t="s">
+      <c r="I44" s="97" t="s">
+        <v>38</v>
+      </c>
+      <c r="J44" s="97"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="F45" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H45" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="J44" s="97"/>
-    </row>
-    <row r="45" spans="1:16" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="66" t="s">
-        <v>156</v>
-      </c>
-      <c r="B45" s="67" t="s">
+      <c r="J45" s="97"/>
+    </row>
+    <row r="46" spans="1:16" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="66" t="s">
+        <v>357</v>
+      </c>
+      <c r="B46" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="C45" s="68" t="s">
+      <c r="C46" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="70" t="s">
+      <c r="D46" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="E45" s="45" t="s">
+      <c r="E46" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="F45" s="44"/>
-      <c r="G45" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H45" s="96" t="s">
-        <v>38</v>
-      </c>
-      <c r="I45" s="45" t="s">
+      <c r="F46" s="44"/>
+      <c r="G46" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H46" s="96" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="J45" s="107"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E46" s="44" t="s">
-        <v>155</v>
-      </c>
-      <c r="F46" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G46" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H46" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="I46" s="97" t="s">
-        <v>38</v>
-      </c>
-      <c r="J46" s="97"/>
+      <c r="J46" s="107"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E47" s="44" t="s">
         <v>155</v>
@@ -6240,14 +6235,44 @@
       <c r="H47" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I47" s="21" t="s">
+      <c r="I47" s="97" t="s">
+        <v>38</v>
+      </c>
+      <c r="J47" s="97"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="F48" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G48" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H48" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I48" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="J47" s="97"/>
+      <c r="J48" s="97"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:J13">
-    <sortCondition ref="A9:A13"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:J14">
+    <sortCondition ref="A10:A14"/>
   </sortState>
   <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6273,21 +6298,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="76" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" s="76" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" s="50" t="s">
         <v>214</v>
-      </c>
-      <c r="B1" s="76" t="s">
-        <v>215</v>
-      </c>
-      <c r="D1" s="50" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="77" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B2" s="77" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D2" t="str">
         <f t="shared" ref="D2:D29" si="0">""""&amp;A2&amp;""""&amp;" : "&amp;""""&amp;B2&amp;""""&amp;","</f>
@@ -6296,7 +6321,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="77" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B3" s="77" t="s">
         <v>133</v>
@@ -6308,10 +6333,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="77" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B4" s="77" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
@@ -6320,10 +6345,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="77" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B5" s="77" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -6332,10 +6357,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="77" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B6" s="77" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -6344,10 +6369,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="77" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B7" s="77" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
@@ -6356,10 +6381,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="77" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B8" s="77" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -6368,10 +6393,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="77" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B9" s="77" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
@@ -6380,10 +6405,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="77" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B10" s="77" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -6392,10 +6417,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="77" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B11" s="77" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
@@ -6404,10 +6429,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="77" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B12" s="77" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
@@ -6416,10 +6441,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="77" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B13" s="77" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -6428,10 +6453,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="77" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B14" s="77" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -6440,10 +6465,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="77" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B15" s="77" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
@@ -6452,10 +6477,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="77" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B16" s="77" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -6464,10 +6489,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="77" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B17" s="77" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
@@ -6476,10 +6501,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="77" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B18" s="77" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
@@ -6488,10 +6513,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="77" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B19" s="77" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
@@ -6500,10 +6525,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="77" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B20" s="77" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
@@ -6512,10 +6537,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="77" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B21" s="77" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
@@ -6524,10 +6549,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="77" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B22" s="77" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
@@ -6536,10 +6561,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="77" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B23" s="77" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
@@ -6548,10 +6573,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="77" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B24" s="77" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
@@ -6560,10 +6585,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="77" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B25" s="77" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
@@ -6572,10 +6597,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="77" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B26" s="77" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
@@ -6584,10 +6609,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="77" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B27" s="77" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
@@ -6596,10 +6621,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="77" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B28" s="77" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
@@ -6608,10 +6633,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="77" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B29" s="77" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
@@ -6641,101 +6666,101 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="86" t="s">
+        <v>324</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>325</v>
+      </c>
+      <c r="C1" s="86" t="s">
         <v>326</v>
-      </c>
-      <c r="B1" s="82" t="s">
-        <v>327</v>
-      </c>
-      <c r="C1" s="86" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="90" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B2" s="83" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C2" s="87" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="91" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B3" s="84" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C3" s="88" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="91" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B4" s="84" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C4" s="88" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="91" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B5" s="84" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C5" s="88" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="91" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B6" s="84" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C6" s="88" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="91" t="s">
+        <v>253</v>
+      </c>
+      <c r="B7" s="84" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" s="88" t="s">
         <v>255</v>
-      </c>
-      <c r="B7" s="84" t="s">
-        <v>256</v>
-      </c>
-      <c r="C7" s="88" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="91" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B8" s="84" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C8" s="88" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="91" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B9" s="84" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C9" s="88" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6743,153 +6768,153 @@
         <v>66</v>
       </c>
       <c r="B10" s="84" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C10" s="88" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="91" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B11" s="84" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C11" s="88" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="91" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B12" s="84" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C12" s="88" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="91" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B13" s="84" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C13" s="88" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="91" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B14" s="84" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C14" s="88" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="91" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B15" s="84" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C15" s="88" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="91" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B16" s="84" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C16" s="88" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="91" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B17" s="84" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C17" s="88" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="91" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B18" s="84" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C18" s="88" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="91" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B19" s="84" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C19" s="88" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="91" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B20" s="84" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C20" s="88" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="91" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B21" s="84" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C21" s="88" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="91" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B22" s="84" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C22" s="88" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="91" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B23" s="84" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C23" s="88" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6897,10 +6922,10 @@
         <v>55</v>
       </c>
       <c r="B24" s="84" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C24" s="88" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6908,219 +6933,219 @@
         <v>54</v>
       </c>
       <c r="B25" s="84" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C25" s="88" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="91" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B26" s="84" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C26" s="88" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="91" t="s">
+        <v>290</v>
+      </c>
+      <c r="B27" s="84" t="s">
+        <v>291</v>
+      </c>
+      <c r="C27" s="88" t="s">
         <v>292</v>
-      </c>
-      <c r="B27" s="84" t="s">
-        <v>293</v>
-      </c>
-      <c r="C27" s="88" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="91" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B28" s="84" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C28" s="88" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="91" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B29" s="84" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C29" s="88" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="91" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B30" s="84" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C30" s="88" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="91" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B31" s="84" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C31" s="88" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="91" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B32" s="84" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C32" s="88" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="91" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B33" s="84" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C33" s="88" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="91" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B34" s="84" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C34" s="88" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="91" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B35" s="84" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C35" s="88" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="91" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B36" s="84" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C36" s="88" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="91" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B37" s="84" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C37" s="88" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="91" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B38" s="84" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C38" s="88" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="91" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B39" s="84" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C39" s="88" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="91" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B40" s="84" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C40" s="88" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="91" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B41" s="84" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C41" s="88" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="91" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B42" s="84" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C42" s="88" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="B43" s="84" t="s">
+        <v>320</v>
+      </c>
+      <c r="C43" s="88" t="s">
         <v>321</v>
-      </c>
-      <c r="B43" s="84" t="s">
-        <v>322</v>
-      </c>
-      <c r="C43" s="88" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="92" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B44" s="85" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C44" s="89" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>

--- a/Colorado/WaterAllocation/CO_Allocation Schema Mapping_WaDEQA.xlsx
+++ b/Colorado/WaterAllocation/CO_Allocation Schema Mapping_WaDEQA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Colorado\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B31C95-909D-426B-A941-600B6AF4B792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE8255C-047B-4B81-BDC6-D1DBC93523CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="700" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="700" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes and Reminders" sheetId="8" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="359">
   <si>
     <t>Name</t>
   </si>
@@ -770,15 +770,6 @@
   </si>
   <si>
     <t>All Beneficial Uses</t>
-  </si>
-  <si>
-    <t>DiversionTracking</t>
-  </si>
-  <si>
-    <t>Methodology used for tracking diversions in the state of Colorado</t>
-  </si>
-  <si>
-    <t>Water withdrawals</t>
   </si>
   <si>
     <t>Day</t>
@@ -1121,6 +1112,18 @@
   </si>
   <si>
     <t>PrimaryBeneficialUseCategory</t>
+  </si>
+  <si>
+    <t>A Water Right is a property right that is either conditional or absolute and conveys the right to use a particular amount of water, with a specified priority date as confirmed by the water court. The Net Amounts List contains the current status of a water right based on all of its court decreed actions.</t>
+  </si>
+  <si>
+    <t>Colorado Water Rights Method</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/14r6HBwqebBwSE60yuiUu1smmtDONJbu2/view</t>
+  </si>
+  <si>
+    <t>Legal Processes</t>
   </si>
 </sst>
 </file>
@@ -1998,7 +2001,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2063,22 +2066,13 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2093,7 +2087,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -2208,9 +2202,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2220,9 +2211,6 @@
     <xf numFmtId="16" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2235,7 +2223,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2278,10 +2265,7 @@
     <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2350,6 +2334,9 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2746,7 +2733,7 @@
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="47" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2759,8 +2746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2606DDD-D901-4365-BB8D-3E6142C84460}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2830,22 +2817,22 @@
       <c r="D3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="23" t="s">
+      <c r="E3" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="22" t="s">
         <v>38</v>
       </c>
       <c r="I3" s="20">
         <v>11</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="22" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2853,27 +2840,27 @@
       <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="78" t="s">
-        <v>351</v>
-      </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="23" t="s">
+      <c r="C4" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="73" t="s">
+        <v>348</v>
+      </c>
+      <c r="F4" s="54"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="22" t="s">
         <v>38</v>
       </c>
       <c r="I4" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="22" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2890,18 +2877,18 @@
       <c r="D5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="23" t="s">
+      <c r="F5" s="22"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="22" t="s">
         <v>38</v>
       </c>
       <c r="I5" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="22" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2918,18 +2905,18 @@
       <c r="D6" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="79" t="s">
+      <c r="E6" s="74" t="s">
         <v>155</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="23" t="s">
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="22" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2946,18 +2933,18 @@
       <c r="D7" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="79" t="s">
+      <c r="E7" s="74" t="s">
         <v>155</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="23" t="s">
+      <c r="F7" s="22"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="22" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2974,22 +2961,22 @@
       <c r="D8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="79" t="s">
+      <c r="E8" s="74" t="s">
         <v>155</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="36" x14ac:dyDescent="0.3">
+      <c r="F8" s="22"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="120" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
@@ -3002,18 +2989,18 @@
       <c r="D9" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="45" t="s">
-        <v>244</v>
-      </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="23" t="s">
+      <c r="E9" s="42" t="s">
+        <v>355</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="22" t="s">
         <v>38</v>
       </c>
       <c r="I9" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="J9" s="23" t="s">
+      <c r="J9" s="22" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3030,18 +3017,18 @@
       <c r="D10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="72" t="s">
-        <v>243</v>
+      <c r="E10" s="68" t="s">
+        <v>356</v>
       </c>
       <c r="F10" s="20"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="23" t="s">
+      <c r="G10" s="23"/>
+      <c r="H10" s="22" t="s">
         <v>38</v>
       </c>
       <c r="I10" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="J10" s="23" t="s">
+      <c r="J10" s="22" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3058,18 +3045,18 @@
       <c r="D11" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="79" t="s">
-        <v>155</v>
-      </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="23" t="s">
+      <c r="E11" s="113" t="s">
+        <v>357</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="22" t="s">
         <v>38</v>
       </c>
       <c r="I11" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="J11" s="23" t="s">
+      <c r="J11" s="22" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3086,18 +3073,18 @@
       <c r="D12" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="72" t="s">
-        <v>245</v>
-      </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="23" t="s">
+      <c r="E12" s="68" t="s">
+        <v>358</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="22" t="s">
         <v>38</v>
       </c>
       <c r="I12" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="J12" s="23" t="s">
+      <c r="J12" s="22" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3105,8 +3092,11 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:A26">
     <sortCondition ref="A18:A26"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="E11" r:id="rId1" xr:uid="{D242CB5D-EF5E-46AC-AC1B-5ABBF3A18A83}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3185,13 +3175,13 @@
       <c r="D3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="42" t="s">
+      <c r="E3" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="39" t="s">
         <v>38</v>
       </c>
       <c r="H3" s="18" t="s">
@@ -3208,21 +3198,21 @@
       <c r="A4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="55" t="s">
-        <v>352</v>
-      </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="22" t="s">
+      <c r="C4" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>349</v>
+      </c>
+      <c r="F4" s="54"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="11" t="s">
         <v>38</v>
       </c>
       <c r="I4" s="20" t="s">
@@ -3248,9 +3238,9 @@
       <c r="E5" s="20">
         <v>1</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="22" t="s">
+      <c r="F5" s="22"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="11" t="s">
         <v>38</v>
       </c>
       <c r="I5" s="20">
@@ -3274,11 +3264,11 @@
         <v>20</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="11" t="s">
         <v>38</v>
       </c>
       <c r="I6" s="20" t="s">
@@ -3304,9 +3294,9 @@
       <c r="E7" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="22" t="s">
+      <c r="F7" s="22"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="11" t="s">
         <v>38</v>
       </c>
       <c r="I7" s="20" t="s">
@@ -3329,12 +3319,12 @@
       <c r="D8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="81" t="s">
+      <c r="E8" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="22" t="s">
+      <c r="F8" s="22"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="11" t="s">
         <v>38</v>
       </c>
       <c r="I8" s="20" t="s">
@@ -3360,9 +3350,9 @@
       <c r="E9" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="22" t="s">
+      <c r="F9" s="22"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="11" t="s">
         <v>38</v>
       </c>
       <c r="I9" s="20" t="s">
@@ -3388,9 +3378,9 @@
       <c r="E10" s="20">
         <v>11</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="22" t="s">
+      <c r="F10" s="22"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="11" t="s">
         <v>38</v>
       </c>
       <c r="I10" s="20">
@@ -3413,12 +3403,12 @@
       <c r="D11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="81" t="s">
+      <c r="E11" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="22" t="s">
+      <c r="F11" s="22"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="11" t="s">
         <v>38</v>
       </c>
       <c r="I11" s="20" t="s">
@@ -3444,9 +3434,9 @@
       <c r="E12" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="22" t="s">
+      <c r="F12" s="22"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="11" t="s">
         <v>38</v>
       </c>
       <c r="I12" s="20" t="s">
@@ -3472,9 +3462,9 @@
       <c r="E13" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="22" t="s">
+      <c r="F13" s="22"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="11" t="s">
         <v>38</v>
       </c>
       <c r="I13" s="20" t="s">
@@ -3568,16 +3558,16 @@
       <c r="D3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="31" t="s">
+      <c r="E3" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="28" t="s">
         <v>38</v>
       </c>
       <c r="I3" s="21">
@@ -3591,21 +3581,21 @@
       <c r="A4" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="61" t="s">
-        <v>353</v>
-      </c>
-      <c r="F4" s="61"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="32" t="s">
+      <c r="C4" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="F4" s="58"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="29" t="s">
         <v>38</v>
       </c>
       <c r="I4" s="21" t="s">
@@ -3628,12 +3618,12 @@
       <c r="D5" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="115" t="s">
-        <v>345</v>
-      </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="32" t="s">
+      <c r="E5" s="108" t="s">
+        <v>342</v>
+      </c>
+      <c r="F5" s="30"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="29" t="s">
         <v>38</v>
       </c>
       <c r="I5" s="21" t="s">
@@ -3659,9 +3649,9 @@
       <c r="E6" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="32" t="s">
+      <c r="F6" s="30"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="29" t="s">
         <v>38</v>
       </c>
       <c r="I6" s="21" t="s">
@@ -3684,12 +3674,12 @@
       <c r="D7" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="F7" s="33"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="32" t="s">
+      <c r="F7" s="30"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="29" t="s">
         <v>38</v>
       </c>
       <c r="I7" s="21" t="s">
@@ -3712,12 +3702,12 @@
       <c r="D8" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="32" t="s">
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="29" t="s">
         <v>38</v>
       </c>
       <c r="I8" s="21" t="s">
@@ -3740,12 +3730,12 @@
       <c r="D9" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="F9" s="33"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="32" t="s">
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="29" t="s">
         <v>38</v>
       </c>
       <c r="I9" s="21" t="s">
@@ -3768,12 +3758,12 @@
       <c r="D10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="32" t="s">
+      <c r="F10" s="30"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="29" t="s">
         <v>38</v>
       </c>
       <c r="I10" s="21" t="s">
@@ -3796,12 +3786,12 @@
       <c r="D11" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="115" t="s">
-        <v>354</v>
-      </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="32" t="s">
+      <c r="E11" s="108" t="s">
+        <v>351</v>
+      </c>
+      <c r="F11" s="30"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="29" t="s">
         <v>38</v>
       </c>
       <c r="I11" s="21" t="s">
@@ -3827,9 +3817,9 @@
       <c r="E12" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="32" t="s">
+      <c r="F12" s="30"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="29" t="s">
         <v>38</v>
       </c>
       <c r="I12" s="21" t="s">
@@ -3927,13 +3917,13 @@
       <c r="D3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="59" t="s">
+      <c r="E3" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="56" t="s">
         <v>38</v>
       </c>
       <c r="H3" s="18" t="s">
@@ -3942,33 +3932,33 @@
       <c r="I3" s="20">
         <v>34658</v>
       </c>
-      <c r="J3" s="22"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="54" t="s">
+      <c r="C4" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="51" t="s">
         <v>182</v>
       </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="22" t="s">
+      <c r="F4" s="54"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="11" t="s">
         <v>38</v>
       </c>
       <c r="I4" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="J4" s="22"/>
+      <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
@@ -3983,18 +3973,18 @@
       <c r="D5" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
@@ -4009,18 +3999,18 @@
       <c r="D6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
@@ -4035,18 +4025,18 @@
       <c r="D7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="23" t="s">
-        <v>331</v>
-      </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="22" t="s">
+      <c r="E7" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="11" t="s">
         <v>38</v>
       </c>
       <c r="I7" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="J7" s="22"/>
+      <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
@@ -4061,22 +4051,22 @@
       <c r="D8" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="116" t="s">
-        <v>346</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="G8" s="34" t="s">
+      <c r="E8" s="109" t="s">
+        <v>343</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="G8" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="11" t="s">
         <v>38</v>
       </c>
       <c r="I8" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="J8" s="27"/>
+      <c r="J8" s="24"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
@@ -4091,22 +4081,22 @@
       <c r="D9" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="23" t="s">
-        <v>347</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="G9" s="49" t="s">
+      <c r="E9" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="G9" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="11" t="s">
         <v>38</v>
       </c>
       <c r="I9" s="20">
         <v>17839</v>
       </c>
-      <c r="J9" s="22"/>
+      <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
@@ -4121,22 +4111,22 @@
       <c r="D10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="75" t="s">
-        <v>328</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="G10" s="34" t="s">
+      <c r="E10" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="G10" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="11" t="s">
         <v>38</v>
       </c>
       <c r="I10" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="J10" s="27"/>
+      <c r="J10" s="24"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C11" s="11"/>
@@ -4230,46 +4220,46 @@
       <c r="D3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="30" t="s">
+      <c r="E3" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="27" t="s">
         <v>38</v>
       </c>
       <c r="I3" s="21">
         <v>39035</v>
       </c>
-      <c r="J3" s="22"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="54" t="s">
+      <c r="C4" s="49"/>
+      <c r="D4" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="26" t="s">
+      <c r="F4" s="54"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="22" t="s">
         <v>38</v>
       </c>
       <c r="I4" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="J4" s="22"/>
+      <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
@@ -4287,19 +4277,19 @@
       <c r="E5" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="F5" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="26" t="s">
+      <c r="F5" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="22" t="s">
         <v>38</v>
       </c>
       <c r="I5" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="J5" s="22"/>
+      <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
@@ -4314,22 +4304,22 @@
       <c r="D6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="G6" s="28" t="s">
+      <c r="E6" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="G6" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="22" t="s">
         <v>38</v>
       </c>
       <c r="I6" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="J6" s="22"/>
+      <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
@@ -4344,22 +4334,22 @@
       <c r="D7" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="G7" s="24" t="s">
+      <c r="E7" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="G7" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="22"/>
+      <c r="H7" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
@@ -4374,22 +4364,22 @@
       <c r="D8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="26" t="s">
+      <c r="F8" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="22" t="s">
         <v>38</v>
       </c>
       <c r="I8" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="J8" s="27"/>
+      <c r="J8" s="24"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
@@ -4407,17 +4397,17 @@
       <c r="E9" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="F9" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="26" t="s">
+      <c r="F9" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="22" t="s">
         <v>38</v>
       </c>
       <c r="I9" s="21"/>
-      <c r="J9" s="22"/>
+      <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
@@ -4435,19 +4425,19 @@
       <c r="E10" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="F10" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="22"/>
+      <c r="F10" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
@@ -4465,19 +4455,19 @@
       <c r="E11" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="F11" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="22"/>
+      <c r="F11" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
@@ -4495,19 +4485,19 @@
       <c r="E12" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="F12" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="22"/>
+      <c r="F12" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
@@ -4522,22 +4512,22 @@
       <c r="D13" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="G13" s="24" t="s">
+      <c r="E13" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="G13" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="H13" s="26" t="s">
+      <c r="H13" s="22" t="s">
         <v>38</v>
       </c>
       <c r="I13" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J13" s="29"/>
+      <c r="J13" s="26"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
@@ -4552,22 +4542,22 @@
       <c r="D14" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="G14" s="24" t="s">
+      <c r="E14" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="G14" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="26" t="s">
+      <c r="H14" s="22" t="s">
         <v>38</v>
       </c>
       <c r="I14" s="21">
         <v>-1067.700435</v>
       </c>
-      <c r="J14" s="29"/>
+      <c r="J14" s="26"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
@@ -4585,19 +4575,19 @@
       <c r="E15" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="F15" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" s="22"/>
+      <c r="F15" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
@@ -4615,23 +4605,23 @@
       <c r="E16" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="F16" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" s="22"/>
-    </row>
-    <row r="17" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="1:10" s="63" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>16</v>
@@ -4642,20 +4632,20 @@
       <c r="D17" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="45" t="s">
-        <v>335</v>
-      </c>
-      <c r="F17" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="109"/>
-      <c r="I17" s="110" t="s">
-        <v>335</v>
-      </c>
-      <c r="J17" s="109"/>
+      <c r="E17" s="42" t="s">
+        <v>332</v>
+      </c>
+      <c r="F17" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="102"/>
+      <c r="I17" s="103" t="s">
+        <v>332</v>
+      </c>
+      <c r="J17" s="102"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
@@ -4668,22 +4658,22 @@
       <c r="D18" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="G18" s="28" t="s">
+      <c r="E18" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="G18" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="H18" s="26" t="s">
+      <c r="H18" s="22" t="s">
         <v>38</v>
       </c>
       <c r="I18" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="J18" s="22"/>
+      <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
@@ -4698,22 +4688,22 @@
       <c r="D19" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="G19" s="24" t="s">
+      <c r="E19" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="G19" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="H19" s="26" t="s">
+      <c r="H19" s="22" t="s">
         <v>38</v>
       </c>
       <c r="I19" s="21">
         <v>3703994</v>
       </c>
-      <c r="J19" s="27"/>
+      <c r="J19" s="24"/>
     </row>
     <row r="20" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
@@ -4731,19 +4721,19 @@
       <c r="E20" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="F20" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="26" t="s">
+      <c r="F20" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="22" t="s">
         <v>38</v>
       </c>
       <c r="I20" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="J20" s="22"/>
+      <c r="J20" s="11"/>
     </row>
     <row r="21" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
@@ -4758,22 +4748,22 @@
       <c r="D21" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="108" t="s">
-        <v>329</v>
-      </c>
-      <c r="F21" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="G21" s="28" t="s">
+      <c r="E21" s="101" t="s">
+        <v>326</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="G21" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="H21" s="26" t="s">
+      <c r="H21" s="22" t="s">
         <v>38</v>
       </c>
       <c r="I21" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="J21" s="22"/>
+      <c r="J21" s="11"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
@@ -4788,22 +4778,22 @@
       <c r="D22" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="F22" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="26" t="s">
+      <c r="F22" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="22" t="s">
         <v>38</v>
       </c>
       <c r="I22" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="J22" s="22"/>
+      <c r="J22" s="11"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
@@ -4821,19 +4811,19 @@
       <c r="E23" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="F23" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="I23" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="J23" s="22"/>
+      <c r="F23" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="11"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:J27">
@@ -4849,7 +4839,7 @@
   <dimension ref="A1:P48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4906,231 +4896,231 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="66" t="s">
+    <row r="3" spans="1:10" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="68" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="69" t="s">
+      <c r="C3" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="93" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="45">
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="42">
         <v>50004</v>
       </c>
-      <c r="J3" s="94"/>
-    </row>
-    <row r="4" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="66" t="s">
+      <c r="J3" s="88"/>
+    </row>
+    <row r="4" spans="1:10" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="68" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="70" t="s">
+      <c r="C4" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="95" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="45">
+      <c r="E4" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="42">
         <v>43</v>
       </c>
-      <c r="J4" s="94"/>
-    </row>
-    <row r="5" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="66" t="s">
+      <c r="J4" s="88"/>
+    </row>
+    <row r="5" spans="1:10" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="68" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="70" t="s">
+      <c r="C5" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="96" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="45">
+      <c r="E5" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="42">
         <v>1</v>
       </c>
-      <c r="J5" s="94"/>
-    </row>
-    <row r="6" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="66" t="s">
+      <c r="J5" s="88"/>
+    </row>
+    <row r="6" spans="1:10" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="68" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="70" t="s">
+      <c r="C6" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="96" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="45">
+      <c r="E6" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="42">
         <v>39035</v>
       </c>
-      <c r="J6" s="94"/>
-    </row>
-    <row r="7" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="66" t="s">
+      <c r="J6" s="88"/>
+    </row>
+    <row r="7" spans="1:10" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="68" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="70" t="s">
+      <c r="C7" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="96" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="45">
+      <c r="E7" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="42">
         <v>63</v>
       </c>
-      <c r="J7" s="94"/>
-    </row>
-    <row r="8" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="66" t="s">
+      <c r="J7" s="88"/>
+    </row>
+    <row r="8" spans="1:10" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="68" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="70" t="s">
+      <c r="C8" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="96" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="45">
+      <c r="E8" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="42">
         <v>371091</v>
       </c>
-      <c r="J8" s="94"/>
-    </row>
-    <row r="9" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="66" t="s">
-        <v>355</v>
-      </c>
-      <c r="B9" s="67" t="s">
+      <c r="J8" s="88"/>
+    </row>
+    <row r="9" spans="1:10" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="63" t="s">
+        <v>352</v>
+      </c>
+      <c r="B9" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="68" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="72" t="s">
-        <v>356</v>
-      </c>
-      <c r="F9" s="44"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94"/>
-    </row>
-    <row r="10" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="66" t="s">
+      <c r="C9" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="68" t="s">
+        <v>353</v>
+      </c>
+      <c r="F9" s="41"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+    </row>
+    <row r="10" spans="1:10" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="68" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="72" t="s">
-        <v>351</v>
-      </c>
-      <c r="F10" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="94" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="94"/>
+      <c r="C10" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="68" t="s">
+        <v>348</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="88"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
@@ -5146,21 +5136,21 @@
         <v>38</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>353</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="31" t="s">
         <v>38</v>
       </c>
       <c r="H11" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="97" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="97"/>
+      <c r="I11" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="90"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
@@ -5176,21 +5166,21 @@
         <v>38</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>333</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="34" t="s">
+        <v>330</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="31" t="s">
         <v>38</v>
       </c>
       <c r="H12" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I12" s="97" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="97"/>
+      <c r="I12" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="90"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
@@ -5206,85 +5196,85 @@
         <v>38</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="31" t="s">
         <v>38</v>
       </c>
       <c r="H13" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="97" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="97"/>
+      <c r="I13" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="90"/>
     </row>
     <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="57" t="s">
-        <v>332</v>
-      </c>
-      <c r="F14" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="56" t="s">
+      <c r="C14" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="54" t="s">
+        <v>329</v>
+      </c>
+      <c r="F14" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="53" t="s">
         <v>38</v>
       </c>
       <c r="H14" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="97" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14" s="97"/>
-    </row>
-    <row r="15" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="66" t="s">
+      <c r="I14" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="90"/>
+    </row>
+    <row r="15" spans="1:10" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="63" t="s">
         <v>157</v>
       </c>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="68" t="s">
+      <c r="C15" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="70" t="s">
+      <c r="D15" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="44" t="s">
+      <c r="E15" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="F15" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="45">
+      <c r="F15" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="42">
         <v>5363</v>
       </c>
-      <c r="J15" s="98" t="s">
+      <c r="J15" s="91" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>94</v>
       </c>
@@ -5297,13 +5287,13 @@
       <c r="D16" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="44" t="s">
+      <c r="E16" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="F16" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="34" t="s">
+      <c r="F16" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="31" t="s">
         <v>38</v>
       </c>
       <c r="H16" s="20" t="s">
@@ -5312,9 +5302,9 @@
       <c r="I16" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="J16" s="97"/>
-    </row>
-    <row r="17" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J16" s="90"/>
+    </row>
+    <row r="17" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>93</v>
       </c>
@@ -5327,13 +5317,13 @@
       <c r="D17" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="44" t="s">
+      <c r="E17" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="F17" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="34" t="s">
+      <c r="F17" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="31" t="s">
         <v>38</v>
       </c>
       <c r="H17" s="20" t="s">
@@ -5342,37 +5332,37 @@
       <c r="I17" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="J17" s="97"/>
-    </row>
-    <row r="18" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="66" t="s">
+      <c r="J17" s="90"/>
+    </row>
+    <row r="18" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="67" t="s">
+      <c r="B18" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="67" t="s">
+      <c r="C18" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="70" t="s">
+      <c r="D18" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="44" t="s">
+      <c r="E18" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="F18" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="45" t="s">
+      <c r="F18" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="J18" s="99"/>
+      <c r="J18" s="92"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
@@ -5387,13 +5377,13 @@
       <c r="D19" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="44" t="s">
+      <c r="E19" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="F19" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="34" t="s">
+      <c r="F19" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="31" t="s">
         <v>38</v>
       </c>
       <c r="H19" s="20" t="s">
@@ -5402,7 +5392,7 @@
       <c r="I19" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="J19" s="97"/>
+      <c r="J19" s="90"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
@@ -5417,13 +5407,13 @@
       <c r="D20" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="44" t="s">
+      <c r="E20" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="F20" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="34" t="s">
+      <c r="F20" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="31" t="s">
         <v>38</v>
       </c>
       <c r="H20" s="20" t="s">
@@ -5432,9 +5422,9 @@
       <c r="I20" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="J20" s="97"/>
-    </row>
-    <row r="21" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J20" s="90"/>
+    </row>
+    <row r="21" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>88</v>
       </c>
@@ -5447,22 +5437,22 @@
       <c r="D21" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="44" t="s">
+      <c r="E21" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="G21" s="34" t="s">
+      <c r="G21" s="31" t="s">
         <v>38</v>
       </c>
       <c r="H21" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="97" t="s">
-        <v>38</v>
-      </c>
-      <c r="J21" s="97"/>
+      <c r="I21" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="90"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
@@ -5477,13 +5467,13 @@
       <c r="D22" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="44" t="s">
+      <c r="E22" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="F22" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="34" t="s">
+      <c r="F22" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="31" t="s">
         <v>38</v>
       </c>
       <c r="H22" s="20" t="s">
@@ -5492,11 +5482,11 @@
       <c r="I22" s="21">
         <v>5200</v>
       </c>
-      <c r="J22" s="97"/>
-    </row>
-    <row r="23" spans="1:10" s="48" customFormat="1" ht="84" x14ac:dyDescent="0.3">
+      <c r="J22" s="90"/>
+    </row>
+    <row r="23" spans="1:10" s="45" customFormat="1" ht="84" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>69</v>
@@ -5507,14 +5497,14 @@
       <c r="D23" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="44" t="s">
-        <v>341</v>
-      </c>
-      <c r="F23" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="G23" s="34" t="s">
-        <v>343</v>
+      <c r="E23" s="41" t="s">
+        <v>338</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>340</v>
       </c>
       <c r="H23" s="20" t="s">
         <v>38</v>
@@ -5522,7 +5512,7 @@
       <c r="I23" s="21">
         <v>1</v>
       </c>
-      <c r="J23" s="97"/>
+      <c r="J23" s="90"/>
     </row>
     <row r="24" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
@@ -5537,14 +5527,14 @@
       <c r="D24" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="44" t="s">
-        <v>342</v>
-      </c>
-      <c r="F24" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="G24" s="34" t="s">
-        <v>344</v>
+      <c r="E24" s="41" t="s">
+        <v>339</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="G24" s="31" t="s">
+        <v>341</v>
       </c>
       <c r="H24" s="20" t="s">
         <v>38</v>
@@ -5552,7 +5542,7 @@
       <c r="I24" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="J24" s="97"/>
+      <c r="J24" s="90"/>
     </row>
     <row r="25" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
@@ -5567,13 +5557,13 @@
       <c r="D25" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="44" t="s">
+      <c r="E25" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="F25" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="G25" s="34" t="s">
+      <c r="F25" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="G25" s="31" t="s">
         <v>174</v>
       </c>
       <c r="H25" s="20" t="s">
@@ -5582,7 +5572,7 @@
       <c r="I25" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="J25" s="100"/>
+      <c r="J25" s="93"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
@@ -5597,13 +5587,13 @@
       <c r="D26" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="44" t="s">
-        <v>331</v>
-      </c>
-      <c r="F26" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" s="34" t="s">
+      <c r="E26" s="41" t="s">
+        <v>328</v>
+      </c>
+      <c r="F26" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="31" t="s">
         <v>38</v>
       </c>
       <c r="H26" s="20" t="s">
@@ -5612,7 +5602,7 @@
       <c r="I26" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="J26" s="97"/>
+      <c r="J26" s="90"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
@@ -5621,19 +5611,19 @@
       <c r="B27" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="11" t="s">
         <v>38</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="G27" s="28" t="s">
+      <c r="E27" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="G27" s="25" t="s">
         <v>177</v>
       </c>
       <c r="H27" s="20" t="s">
@@ -5642,9 +5632,9 @@
       <c r="I27" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="J27" s="97"/>
-    </row>
-    <row r="28" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J27" s="90"/>
+    </row>
+    <row r="28" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>104</v>
       </c>
@@ -5657,22 +5647,22 @@
       <c r="D28" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="74" t="s">
+      <c r="E28" s="70" t="s">
         <v>173</v>
       </c>
-      <c r="F28" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" s="24" t="s">
+      <c r="F28" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="23" t="s">
         <v>38</v>
       </c>
       <c r="H28" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I28" s="101">
+      <c r="I28" s="94">
         <v>44196</v>
       </c>
-      <c r="J28" s="102"/>
+      <c r="J28" s="95"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
@@ -5687,22 +5677,22 @@
       <c r="D29" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="74" t="s">
+      <c r="E29" s="70" t="s">
         <v>172</v>
       </c>
-      <c r="F29" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29" s="24" t="s">
+      <c r="F29" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="23" t="s">
         <v>38</v>
       </c>
       <c r="H29" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I29" s="101">
+      <c r="I29" s="94">
         <v>43831</v>
       </c>
-      <c r="J29" s="102"/>
+      <c r="J29" s="95"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
@@ -5717,13 +5707,13 @@
       <c r="D30" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="44" t="s">
+      <c r="E30" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="F30" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" s="24" t="s">
+      <c r="F30" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="23" t="s">
         <v>38</v>
       </c>
       <c r="H30" s="20" t="s">
@@ -5732,11 +5722,11 @@
       <c r="I30" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="J30" s="97"/>
-    </row>
-    <row r="31" spans="1:10" s="48" customFormat="1" ht="84" x14ac:dyDescent="0.3">
+      <c r="J30" s="90"/>
+    </row>
+    <row r="31" spans="1:10" s="45" customFormat="1" ht="84" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>69</v>
@@ -5747,14 +5737,14 @@
       <c r="D31" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="44" t="s">
+      <c r="E31" s="41" t="s">
+        <v>337</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="G31" s="31" t="s">
         <v>340</v>
-      </c>
-      <c r="F31" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="G31" s="34" t="s">
-        <v>343</v>
       </c>
       <c r="H31" s="20" t="s">
         <v>38</v>
@@ -5762,7 +5752,7 @@
       <c r="I31" s="21">
         <v>0</v>
       </c>
-      <c r="J31" s="97"/>
+      <c r="J31" s="90"/>
     </row>
     <row r="32" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
@@ -5771,28 +5761,28 @@
       <c r="B32" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="11" t="s">
         <v>38</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>38</v>
       </c>
       <c r="E32" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="F32" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="F32" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="G32" s="62" t="s">
+      <c r="G32" s="59" t="s">
         <v>215</v>
       </c>
-      <c r="H32" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="I32" s="97" t="s">
-        <v>38</v>
-      </c>
-      <c r="J32" s="97"/>
+      <c r="H32" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="J32" s="90"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
@@ -5807,13 +5797,13 @@
       <c r="D33" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="44" t="s">
+      <c r="E33" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="F33" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33" s="24" t="s">
+      <c r="F33" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="23" t="s">
         <v>38</v>
       </c>
       <c r="H33" s="20" t="s">
@@ -5822,7 +5812,7 @@
       <c r="I33" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="J33" s="97"/>
+      <c r="J33" s="90"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
@@ -5837,13 +5827,13 @@
       <c r="D34" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="44" t="s">
+      <c r="E34" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="F34" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G34" s="24" t="s">
+      <c r="F34" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="23" t="s">
         <v>38</v>
       </c>
       <c r="H34" s="20" t="s">
@@ -5852,7 +5842,7 @@
       <c r="I34" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="J34" s="97"/>
+      <c r="J34" s="90"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
@@ -5867,13 +5857,13 @@
       <c r="D35" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="44" t="s">
+      <c r="E35" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="F35" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G35" s="24" t="s">
+      <c r="F35" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="23" t="s">
         <v>38</v>
       </c>
       <c r="H35" s="20" t="s">
@@ -5882,37 +5872,37 @@
       <c r="I35" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="J35" s="97"/>
-    </row>
-    <row r="36" spans="1:16" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="66" t="s">
+      <c r="J35" s="90"/>
+    </row>
+    <row r="36" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="B36" s="67" t="s">
+      <c r="B36" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="71" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="73">
+      <c r="C36" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="69">
         <v>44631</v>
       </c>
-      <c r="F36" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G36" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H36" s="96" t="s">
-        <v>38</v>
-      </c>
-      <c r="I36" s="103">
+      <c r="F36" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H36" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="I36" s="96">
         <v>43874</v>
       </c>
-      <c r="J36" s="104"/>
+      <c r="J36" s="97"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
@@ -5927,48 +5917,48 @@
       <c r="D37" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E37" s="44" t="s">
+      <c r="E37" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="F37" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G37" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H37" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="I37" s="105">
+      <c r="F37" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="98">
         <v>33187</v>
       </c>
-      <c r="J37" s="99"/>
-    </row>
-    <row r="38" spans="1:16" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="111" t="s">
-        <v>338</v>
-      </c>
-      <c r="B38" s="67" t="s">
-        <v>339</v>
-      </c>
-      <c r="C38" s="68" t="s">
+      <c r="J37" s="92"/>
+    </row>
+    <row r="38" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="104" t="s">
+        <v>335</v>
+      </c>
+      <c r="B38" s="64" t="s">
+        <v>336</v>
+      </c>
+      <c r="C38" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" s="44">
+      <c r="D38" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="41">
         <v>0</v>
       </c>
-      <c r="F38" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G38" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="H38" s="112"/>
-      <c r="I38" s="113"/>
-      <c r="J38" s="114"/>
+      <c r="F38" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" s="105"/>
+      <c r="I38" s="106"/>
+      <c r="J38" s="107"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
@@ -5983,22 +5973,22 @@
       <c r="D39" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E39" s="44" t="s">
+      <c r="E39" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="F39" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G39" s="24" t="s">
+      <c r="F39" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="G39" s="23" t="s">
         <v>38</v>
       </c>
       <c r="H39" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I39" s="97" t="s">
-        <v>38</v>
-      </c>
-      <c r="J39" s="97"/>
+      <c r="I39" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="J39" s="90"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
@@ -6013,22 +6003,22 @@
       <c r="D40" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E40" s="44" t="s">
+      <c r="E40" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="F40" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G40" s="24" t="s">
+      <c r="F40" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="G40" s="23" t="s">
         <v>38</v>
       </c>
       <c r="H40" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I40" s="97" t="s">
-        <v>38</v>
-      </c>
-      <c r="J40" s="106"/>
+      <c r="I40" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="J40" s="99"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
@@ -6043,13 +6033,13 @@
       <c r="D41" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="44" t="s">
+      <c r="E41" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="F41" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G41" s="24" t="s">
+      <c r="F41" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41" s="23" t="s">
         <v>38</v>
       </c>
       <c r="H41" s="20" t="s">
@@ -6058,7 +6048,7 @@
       <c r="I41" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="J41" s="97"/>
+      <c r="J41" s="90"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
@@ -6073,26 +6063,26 @@
       <c r="D42" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E42" s="44" t="s">
+      <c r="E42" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="F42" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G42" s="24" t="s">
+      <c r="F42" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="G42" s="23" t="s">
         <v>38</v>
       </c>
       <c r="H42" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I42" s="97" t="s">
-        <v>38</v>
-      </c>
-      <c r="J42" s="97"/>
-    </row>
-    <row r="43" spans="1:16" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I42" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="J42" s="90"/>
+    </row>
+    <row r="43" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>34</v>
@@ -6105,15 +6095,15 @@
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
-      <c r="G43" s="117"/>
-      <c r="H43" s="118" t="s">
-        <v>38</v>
-      </c>
-      <c r="I43" s="97" t="s">
-        <v>349</v>
-      </c>
-      <c r="J43" s="119" t="s">
-        <v>350</v>
+      <c r="G43" s="110"/>
+      <c r="H43" s="111" t="s">
+        <v>38</v>
+      </c>
+      <c r="I43" s="90" t="s">
+        <v>346</v>
+      </c>
+      <c r="J43" s="112" t="s">
+        <v>347</v>
       </c>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
@@ -6135,22 +6125,22 @@
       <c r="D44" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E44" s="44" t="s">
+      <c r="E44" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="F44" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G44" s="24" t="s">
+      <c r="F44" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44" s="23" t="s">
         <v>38</v>
       </c>
       <c r="H44" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I44" s="97" t="s">
-        <v>38</v>
-      </c>
-      <c r="J44" s="97"/>
+      <c r="I44" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="J44" s="90"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
@@ -6165,13 +6155,13 @@
       <c r="D45" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E45" s="44" t="s">
+      <c r="E45" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="F45" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G45" s="24" t="s">
+      <c r="F45" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" s="23" t="s">
         <v>38</v>
       </c>
       <c r="H45" s="20" t="s">
@@ -6180,35 +6170,35 @@
       <c r="I45" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="J45" s="97"/>
-    </row>
-    <row r="46" spans="1:16" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="66" t="s">
-        <v>357</v>
-      </c>
-      <c r="B46" s="67" t="s">
+      <c r="J45" s="90"/>
+    </row>
+    <row r="46" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="63" t="s">
+        <v>354</v>
+      </c>
+      <c r="B46" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="C46" s="68" t="s">
+      <c r="C46" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="70" t="s">
+      <c r="D46" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="45" t="s">
+      <c r="E46" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="F46" s="44"/>
-      <c r="G46" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H46" s="96" t="s">
-        <v>38</v>
-      </c>
-      <c r="I46" s="45" t="s">
+      <c r="F46" s="41"/>
+      <c r="G46" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H46" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="J46" s="107"/>
+      <c r="J46" s="100"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
@@ -6223,22 +6213,22 @@
       <c r="D47" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="44" t="s">
+      <c r="E47" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="F47" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G47" s="24" t="s">
+      <c r="F47" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" s="23" t="s">
         <v>38</v>
       </c>
       <c r="H47" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I47" s="97" t="s">
-        <v>38</v>
-      </c>
-      <c r="J47" s="97"/>
+      <c r="I47" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="J47" s="90"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
@@ -6253,14 +6243,14 @@
       <c r="D48" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E48" s="44" t="s">
-        <v>155</v>
-      </c>
-      <c r="F48" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G48" s="24" t="s">
-        <v>38</v>
+      <c r="E48" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="F48" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="G48" s="23" t="s">
+        <v>316</v>
       </c>
       <c r="H48" s="20" t="s">
         <v>38</v>
@@ -6268,7 +6258,7 @@
       <c r="I48" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="J48" s="97"/>
+      <c r="J48" s="90"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:J14">
@@ -6290,28 +6280,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.21875" style="77" customWidth="1"/>
-    <col min="2" max="2" width="33.21875" style="77" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.21875" style="72" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" style="72" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="71" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="71" t="s">
         <v>213</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="47" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="72" t="s">
         <v>202</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="72" t="s">
         <v>216</v>
       </c>
       <c r="D2" t="str">
@@ -6320,10 +6310,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="72" t="s">
         <v>203</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="72" t="s">
         <v>133</v>
       </c>
       <c r="D3" t="str">
@@ -6332,10 +6322,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="72" t="s">
         <v>204</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="72" t="s">
         <v>217</v>
       </c>
       <c r="D4" t="str">
@@ -6344,10 +6334,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="72" t="s">
         <v>205</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="72" t="s">
         <v>218</v>
       </c>
       <c r="D5" t="str">
@@ -6356,10 +6346,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="72" t="s">
         <v>206</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="72" t="s">
         <v>219</v>
       </c>
       <c r="D6" t="str">
@@ -6368,10 +6358,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="72" t="s">
         <v>207</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="72" t="s">
         <v>220</v>
       </c>
       <c r="D7" t="str">
@@ -6380,10 +6370,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="72" t="s">
         <v>208</v>
       </c>
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="72" t="s">
         <v>221</v>
       </c>
       <c r="D8" t="str">
@@ -6392,10 +6382,10 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="72" t="s">
         <v>209</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="72" t="s">
         <v>222</v>
       </c>
       <c r="D9" t="str">
@@ -6404,10 +6394,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="72" t="s">
         <v>210</v>
       </c>
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="72" t="s">
         <v>223</v>
       </c>
       <c r="D10" t="str">
@@ -6416,10 +6406,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="72" t="s">
         <v>211</v>
       </c>
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="72" t="s">
         <v>224</v>
       </c>
       <c r="D11" t="str">
@@ -6428,10 +6418,10 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="72" t="s">
         <v>184</v>
       </c>
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="72" t="s">
         <v>225</v>
       </c>
       <c r="D12" t="str">
@@ -6440,10 +6430,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="72" t="s">
         <v>185</v>
       </c>
-      <c r="B13" s="77" t="s">
+      <c r="B13" s="72" t="s">
         <v>226</v>
       </c>
       <c r="D13" t="str">
@@ -6452,10 +6442,10 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="77" t="s">
+      <c r="A14" s="72" t="s">
         <v>186</v>
       </c>
-      <c r="B14" s="77" t="s">
+      <c r="B14" s="72" t="s">
         <v>227</v>
       </c>
       <c r="D14" t="str">
@@ -6464,10 +6454,10 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="77" t="s">
+      <c r="A15" s="72" t="s">
         <v>187</v>
       </c>
-      <c r="B15" s="77" t="s">
+      <c r="B15" s="72" t="s">
         <v>228</v>
       </c>
       <c r="D15" t="str">
@@ -6476,10 +6466,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="77" t="s">
+      <c r="A16" s="72" t="s">
         <v>188</v>
       </c>
-      <c r="B16" s="77" t="s">
+      <c r="B16" s="72" t="s">
         <v>229</v>
       </c>
       <c r="D16" t="str">
@@ -6488,10 +6478,10 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="72" t="s">
         <v>189</v>
       </c>
-      <c r="B17" s="77" t="s">
+      <c r="B17" s="72" t="s">
         <v>230</v>
       </c>
       <c r="D17" t="str">
@@ -6500,10 +6490,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="77" t="s">
+      <c r="A18" s="72" t="s">
         <v>190</v>
       </c>
-      <c r="B18" s="77" t="s">
+      <c r="B18" s="72" t="s">
         <v>231</v>
       </c>
       <c r="D18" t="str">
@@ -6512,10 +6502,10 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="77" t="s">
+      <c r="A19" s="72" t="s">
         <v>191</v>
       </c>
-      <c r="B19" s="77" t="s">
+      <c r="B19" s="72" t="s">
         <v>232</v>
       </c>
       <c r="D19" t="str">
@@ -6524,10 +6514,10 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="72" t="s">
         <v>192</v>
       </c>
-      <c r="B20" s="77" t="s">
+      <c r="B20" s="72" t="s">
         <v>233</v>
       </c>
       <c r="D20" t="str">
@@ -6536,10 +6526,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="77" t="s">
+      <c r="A21" s="72" t="s">
         <v>193</v>
       </c>
-      <c r="B21" s="77" t="s">
+      <c r="B21" s="72" t="s">
         <v>234</v>
       </c>
       <c r="D21" t="str">
@@ -6548,10 +6538,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="77" t="s">
+      <c r="A22" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="B22" s="77" t="s">
+      <c r="B22" s="72" t="s">
         <v>235</v>
       </c>
       <c r="D22" t="str">
@@ -6560,10 +6550,10 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="77" t="s">
+      <c r="A23" s="72" t="s">
         <v>195</v>
       </c>
-      <c r="B23" s="77" t="s">
+      <c r="B23" s="72" t="s">
         <v>236</v>
       </c>
       <c r="D23" t="str">
@@ -6572,10 +6562,10 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="77" t="s">
+      <c r="A24" s="72" t="s">
         <v>196</v>
       </c>
-      <c r="B24" s="77" t="s">
+      <c r="B24" s="72" t="s">
         <v>237</v>
       </c>
       <c r="D24" t="str">
@@ -6584,10 +6574,10 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="77" t="s">
+      <c r="A25" s="72" t="s">
         <v>197</v>
       </c>
-      <c r="B25" s="77" t="s">
+      <c r="B25" s="72" t="s">
         <v>238</v>
       </c>
       <c r="D25" t="str">
@@ -6596,10 +6586,10 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="77" t="s">
+      <c r="A26" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="B26" s="77" t="s">
+      <c r="B26" s="72" t="s">
         <v>239</v>
       </c>
       <c r="D26" t="str">
@@ -6608,10 +6598,10 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="77" t="s">
+      <c r="A27" s="72" t="s">
         <v>199</v>
       </c>
-      <c r="B27" s="77" t="s">
+      <c r="B27" s="72" t="s">
         <v>240</v>
       </c>
       <c r="D27" t="str">
@@ -6620,10 +6610,10 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="77" t="s">
+      <c r="A28" s="72" t="s">
         <v>200</v>
       </c>
-      <c r="B28" s="77" t="s">
+      <c r="B28" s="72" t="s">
         <v>241</v>
       </c>
       <c r="D28" t="str">
@@ -6632,10 +6622,10 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="77" t="s">
+      <c r="A29" s="72" t="s">
         <v>201</v>
       </c>
-      <c r="B29" s="77" t="s">
+      <c r="B29" s="72" t="s">
         <v>242</v>
       </c>
       <c r="D29" t="str">
@@ -6659,493 +6649,493 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" style="77" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="137.109375" style="80" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="77" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" style="72" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="137.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="72" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="86" t="s">
-        <v>324</v>
-      </c>
-      <c r="B1" s="82" t="s">
-        <v>325</v>
-      </c>
-      <c r="C1" s="86" t="s">
-        <v>326</v>
+      <c r="A1" s="80" t="s">
+        <v>321</v>
+      </c>
+      <c r="B1" s="76" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1" s="80" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="84" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="77" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" s="81" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="85" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="78" t="s">
+        <v>246</v>
+      </c>
+      <c r="C3" s="82" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="85" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>247</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C4" s="82" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="85" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="78" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="91" t="s">
-        <v>168</v>
-      </c>
-      <c r="B3" s="84" t="s">
+      <c r="C5" s="82" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="85" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" s="78" t="s">
         <v>249</v>
       </c>
-      <c r="C3" s="88" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="91" t="s">
-        <v>169</v>
-      </c>
-      <c r="B4" s="84" t="s">
+      <c r="C6" s="82" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="85" t="s">
         <v>250</v>
       </c>
-      <c r="C4" s="88" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="91" t="s">
-        <v>181</v>
-      </c>
-      <c r="B5" s="84" t="s">
+      <c r="B7" s="78" t="s">
         <v>251</v>
       </c>
-      <c r="C5" s="88" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="91" t="s">
-        <v>171</v>
-      </c>
-      <c r="B6" s="84" t="s">
+      <c r="C7" s="82" t="s">
         <v>252</v>
       </c>
-      <c r="C6" s="88" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="91" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="85" t="s">
         <v>253</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B8" s="78" t="s">
         <v>254</v>
       </c>
-      <c r="C7" s="88" t="s">
+      <c r="C8" s="82" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="85" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="91" t="s">
+      <c r="B9" s="78" t="s">
         <v>256</v>
       </c>
-      <c r="B8" s="84" t="s">
+      <c r="C9" s="82" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="78" t="s">
         <v>257</v>
       </c>
-      <c r="C8" s="88" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="91" t="s">
+      <c r="C10" s="82" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="85" t="s">
         <v>258</v>
       </c>
-      <c r="B9" s="84" t="s">
+      <c r="B11" s="78" t="s">
         <v>259</v>
       </c>
-      <c r="C9" s="88" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="91" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="84" t="s">
+      <c r="C11" s="82" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="85" t="s">
         <v>260</v>
       </c>
-      <c r="C10" s="88" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="91" t="s">
+      <c r="B12" s="78" t="s">
         <v>261</v>
       </c>
-      <c r="B11" s="84" t="s">
+      <c r="C12" s="82" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="85" t="s">
         <v>262</v>
       </c>
-      <c r="C11" s="88" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="91" t="s">
+      <c r="B13" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="B12" s="84" t="s">
+      <c r="C13" s="82" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="85" t="s">
         <v>264</v>
       </c>
-      <c r="C12" s="88" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="91" t="s">
+      <c r="B14" s="78" t="s">
         <v>265</v>
       </c>
-      <c r="B13" s="84" t="s">
+      <c r="C14" s="82" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="85" t="s">
         <v>266</v>
       </c>
-      <c r="C13" s="88" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="91" t="s">
+      <c r="B15" s="78" t="s">
         <v>267</v>
       </c>
-      <c r="B14" s="84" t="s">
+      <c r="C15" s="82" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="85" t="s">
         <v>268</v>
       </c>
-      <c r="C14" s="88" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="91" t="s">
+      <c r="B16" s="78" t="s">
         <v>269</v>
       </c>
-      <c r="B15" s="84" t="s">
+      <c r="C16" s="82" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="85" t="s">
         <v>270</v>
       </c>
-      <c r="C15" s="88" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="91" t="s">
+      <c r="B17" s="78" t="s">
         <v>271</v>
       </c>
-      <c r="B16" s="84" t="s">
+      <c r="C17" s="82" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="85" t="s">
         <v>272</v>
       </c>
-      <c r="C16" s="88" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="91" t="s">
+      <c r="B18" s="78" t="s">
         <v>273</v>
       </c>
-      <c r="B17" s="84" t="s">
+      <c r="C18" s="82" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="85" t="s">
         <v>274</v>
       </c>
-      <c r="C17" s="88" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="91" t="s">
+      <c r="B19" s="78" t="s">
         <v>275</v>
       </c>
-      <c r="B18" s="84" t="s">
+      <c r="C19" s="82" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="85" t="s">
         <v>276</v>
       </c>
-      <c r="C18" s="88" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="91" t="s">
+      <c r="B20" s="78" t="s">
         <v>277</v>
       </c>
-      <c r="B19" s="84" t="s">
+      <c r="C20" s="82" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="85" t="s">
         <v>278</v>
       </c>
-      <c r="C19" s="88" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="91" t="s">
+      <c r="B21" s="78" t="s">
         <v>279</v>
       </c>
-      <c r="B20" s="84" t="s">
+      <c r="C21" s="82" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="85" t="s">
         <v>280</v>
       </c>
-      <c r="C20" s="88" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="91" t="s">
+      <c r="B22" s="78" t="s">
         <v>281</v>
       </c>
-      <c r="B21" s="84" t="s">
+      <c r="C22" s="82" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="85" t="s">
         <v>282</v>
       </c>
-      <c r="C21" s="88" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="91" t="s">
+      <c r="B23" s="78" t="s">
         <v>283</v>
       </c>
-      <c r="B22" s="84" t="s">
+      <c r="C23" s="82" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="78" t="s">
         <v>284</v>
       </c>
-      <c r="C22" s="88" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="91" t="s">
+      <c r="C24" s="82" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="78" t="s">
         <v>285</v>
       </c>
-      <c r="B23" s="84" t="s">
+      <c r="C25" s="82" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="85" t="s">
+        <v>170</v>
+      </c>
+      <c r="B26" s="78" t="s">
         <v>286</v>
       </c>
-      <c r="C23" s="88" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="91" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="84" t="s">
+      <c r="C26" s="82" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="85" t="s">
         <v>287</v>
       </c>
-      <c r="C24" s="88" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="91" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="84" t="s">
+      <c r="B27" s="78" t="s">
         <v>288</v>
       </c>
-      <c r="C25" s="88" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="91" t="s">
-        <v>170</v>
-      </c>
-      <c r="B26" s="84" t="s">
+      <c r="C27" s="82" t="s">
         <v>289</v>
       </c>
-      <c r="C26" s="88" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="91" t="s">
+    </row>
+    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="85" t="s">
         <v>290</v>
       </c>
-      <c r="B27" s="84" t="s">
+      <c r="B28" s="78" t="s">
         <v>291</v>
       </c>
-      <c r="C27" s="88" t="s">
+      <c r="C28" s="82" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="85" t="s">
+        <v>177</v>
+      </c>
+      <c r="B29" s="78" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="91" t="s">
+      <c r="C29" s="82" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="85" t="s">
         <v>293</v>
       </c>
-      <c r="B28" s="84" t="s">
+      <c r="B30" s="78" t="s">
         <v>294</v>
       </c>
-      <c r="C28" s="88" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="91" t="s">
-        <v>177</v>
-      </c>
-      <c r="B29" s="84" t="s">
+      <c r="C30" s="82" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="85" t="s">
         <v>295</v>
       </c>
-      <c r="C29" s="88" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="91" t="s">
+      <c r="B31" s="78" t="s">
         <v>296</v>
       </c>
-      <c r="B30" s="84" t="s">
+      <c r="C31" s="82" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="85" t="s">
         <v>297</v>
       </c>
-      <c r="C30" s="88" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="91" t="s">
+      <c r="B32" s="78" t="s">
         <v>298</v>
       </c>
-      <c r="B31" s="84" t="s">
+      <c r="C32" s="82" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="85" t="s">
         <v>299</v>
       </c>
-      <c r="C31" s="88" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="91" t="s">
+      <c r="B33" s="78" t="s">
         <v>300</v>
       </c>
-      <c r="B32" s="84" t="s">
+      <c r="C33" s="82" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="85" t="s">
+        <v>215</v>
+      </c>
+      <c r="B34" s="78" t="s">
         <v>301</v>
       </c>
-      <c r="C32" s="88" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="91" t="s">
+      <c r="C34" s="82" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="85" t="s">
         <v>302</v>
       </c>
-      <c r="B33" s="84" t="s">
+      <c r="B35" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="C33" s="88" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="91" t="s">
-        <v>215</v>
-      </c>
-      <c r="B34" s="84" t="s">
+      <c r="C35" s="82" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="85" t="s">
         <v>304</v>
       </c>
-      <c r="C34" s="88" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="91" t="s">
+      <c r="B36" s="78" t="s">
         <v>305</v>
       </c>
-      <c r="B35" s="84" t="s">
+      <c r="C36" s="82" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="85" t="s">
         <v>306</v>
       </c>
-      <c r="C35" s="88" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="91" t="s">
+      <c r="B37" s="78" t="s">
         <v>307</v>
       </c>
-      <c r="B36" s="84" t="s">
+      <c r="C37" s="82" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="85" t="s">
         <v>308</v>
       </c>
-      <c r="C36" s="88" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="91" t="s">
+      <c r="B38" s="78" t="s">
+        <v>307</v>
+      </c>
+      <c r="C38" s="82" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="85" t="s">
         <v>309</v>
       </c>
-      <c r="B37" s="84" t="s">
+      <c r="B39" s="78" t="s">
         <v>310</v>
       </c>
-      <c r="C37" s="88" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="91" t="s">
+      <c r="C39" s="82" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="85" t="s">
         <v>311</v>
       </c>
-      <c r="B38" s="84" t="s">
-        <v>310</v>
-      </c>
-      <c r="C38" s="88" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="91" t="s">
+      <c r="B40" s="78" t="s">
         <v>312</v>
       </c>
-      <c r="B39" s="84" t="s">
+      <c r="C40" s="82" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="85" t="s">
         <v>313</v>
       </c>
-      <c r="C39" s="88" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="91" t="s">
+      <c r="B41" s="78" t="s">
+        <v>313</v>
+      </c>
+      <c r="C41" s="82" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="85" t="s">
         <v>314</v>
       </c>
-      <c r="B40" s="84" t="s">
+      <c r="B42" s="78" t="s">
         <v>315</v>
       </c>
-      <c r="C40" s="88" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="91" t="s">
+      <c r="C42" s="82" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="85" t="s">
         <v>316</v>
       </c>
-      <c r="B41" s="84" t="s">
-        <v>316</v>
-      </c>
-      <c r="C41" s="88" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="91" t="s">
+      <c r="B43" s="78" t="s">
         <v>317</v>
       </c>
-      <c r="B42" s="84" t="s">
+      <c r="C43" s="82" t="s">
         <v>318</v>
       </c>
-      <c r="C42" s="88" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="91" t="s">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="86" t="s">
         <v>319</v>
       </c>
-      <c r="B43" s="84" t="s">
+      <c r="B44" s="79" t="s">
         <v>320</v>
       </c>
-      <c r="C43" s="88" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="92" t="s">
-        <v>322</v>
-      </c>
-      <c r="B44" s="85" t="s">
-        <v>323</v>
-      </c>
-      <c r="C44" s="89" t="s">
-        <v>322</v>
+      <c r="C44" s="83" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>

--- a/Colorado/WaterAllocation/CO_Allocation Schema Mapping_WaDEQA.xlsx
+++ b/Colorado/WaterAllocation/CO_Allocation Schema Mapping_WaDEQA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Colorado\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE8255C-047B-4B81-BDC6-D1DBC93523CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823A239C-941E-4F8F-8922-E7FFBB5992D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="700" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="700" activeTab="1" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes and Reminders" sheetId="8" r:id="rId1"/>
@@ -1114,9 +1114,6 @@
     <t>PrimaryBeneficialUseCategory</t>
   </si>
   <si>
-    <t>A Water Right is a property right that is either conditional or absolute and conveys the right to use a particular amount of water, with a specified priority date as confirmed by the water court. The Net Amounts List contains the current status of a water right based on all of its court decreed actions.</t>
-  </si>
-  <si>
     <t>Colorado Water Rights Method</t>
   </si>
   <si>
@@ -1124,6 +1121,9 @@
   </si>
   <si>
     <t>Legal Processes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Water Right is a property right that is either conditional or absolute and conveys the right to use a particular amount of water, with a specified priority date as confirmed by the water court. The Net Amounts List contains the current status of a water right based on all of its court decreed actions. Important: to find out more about the water right in Colorado, the decree number would be the primary reference. "Priority Date" is not the terminology used in Colorado. Make sure to understand the Appropriation Date, Adjudication Date, and Priority Admin No. provided in Colorado’s water rights data. Colorado does not have a machine-readable water right owner name. See this data dictionary https://dwr.state.co.us/Tools/WaterRights/TransactionsDataDictionary/GetDataDictionary </t>
   </si>
 </sst>
 </file>
@@ -2746,8 +2746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2606DDD-D901-4365-BB8D-3E6142C84460}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2976,7 +2976,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="120" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="312" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
@@ -2990,9 +2990,9 @@
         <v>38</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>355</v>
-      </c>
-      <c r="F9" s="22"/>
+        <v>358</v>
+      </c>
+      <c r="F9" s="42"/>
       <c r="G9" s="23"/>
       <c r="H9" s="22" t="s">
         <v>38</v>
@@ -3018,7 +3018,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="68" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="23"/>
@@ -3046,7 +3046,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="113" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="23"/>
@@ -3074,7 +3074,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="68" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="23"/>
@@ -4838,7 +4838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
